--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>№1</t>
+  </si>
   <si>
     <t>№ квартиры</t>
   </si>
@@ -206,9 +209,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -460,1989 +466,1989 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
         <v>70.0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D32" si="1">1*1.1</f>
         <v>1.1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E36" si="2">C3*D3</f>
         <v>77</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>44805.0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J36" si="3">I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <f t="shared" ref="K3:K36" si="4">E3+J3</f>
         <v>77</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2.0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
         <f t="shared" ref="C4:C36" si="5">C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f t="shared" si="2"/>
         <v>76.45</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>44806.0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0.0</v>
       </c>
-      <c r="I4" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J4" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <f t="shared" si="4"/>
         <v>76.45</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3.0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <f t="shared" si="2"/>
         <v>75.9</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>44807.0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0.0</v>
       </c>
-      <c r="I5" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <f t="shared" si="4"/>
         <v>75.9</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4.0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f t="shared" si="2"/>
         <v>75.35</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>44808.0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.0</v>
       </c>
-      <c r="I6" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <f t="shared" si="4"/>
         <v>75.35</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f t="shared" si="2"/>
         <v>74.8</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>44809.0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>0.0</v>
       </c>
-      <c r="I7" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <f t="shared" si="4"/>
         <v>74.8</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f t="shared" si="2"/>
         <v>74.25</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>44810.0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>0.0</v>
       </c>
-      <c r="I8" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <f t="shared" si="2"/>
         <v>73.7</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>44811.0</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>0.0</v>
       </c>
-      <c r="I9" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <f t="shared" si="4"/>
         <v>73.7</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <f t="shared" si="2"/>
         <v>73.15</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>44812.0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>0.0</v>
       </c>
-      <c r="I10" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <f t="shared" si="4"/>
         <v>73.15</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <f t="shared" si="2"/>
         <v>72.6</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>44813.0</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>0.0</v>
       </c>
-      <c r="I11" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <f t="shared" si="4"/>
         <v>72.6</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="A12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <f t="shared" si="2"/>
         <v>72.05</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>44814.0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>1.0</v>
       </c>
-      <c r="I12" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <f t="shared" si="4"/>
         <v>82.05</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11.0</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <v>44815.0</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>2.0</v>
       </c>
-      <c r="I13" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="2">
         <f t="shared" si="4"/>
         <v>91.5</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12.0</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <f t="shared" si="2"/>
         <v>70.95</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <v>44816.0</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>3.0</v>
       </c>
-      <c r="I14" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <f t="shared" si="4"/>
         <v>100.95</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13.0</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <f t="shared" si="2"/>
         <v>70.4</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <v>44817.0</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>4.0</v>
       </c>
-      <c r="I15" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <f t="shared" si="4"/>
         <v>110.4</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14.0</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <f t="shared" si="2"/>
         <v>69.85</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <v>44818.0</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>5.0</v>
       </c>
-      <c r="I16" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <f t="shared" si="4"/>
         <v>119.85</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15.0</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <f t="shared" si="2"/>
         <v>69.3</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <v>44819.0</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>6.0</v>
       </c>
-      <c r="I17" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="2">
         <f t="shared" si="4"/>
         <v>129.3</v>
       </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16.0</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>44820.0</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>7.0</v>
       </c>
-      <c r="I18" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <f t="shared" si="4"/>
         <v>138.75</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17.0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <f t="shared" si="2"/>
         <v>68.2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="6">
         <v>44821.0</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>8.0</v>
       </c>
-      <c r="I19" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <f t="shared" si="4"/>
         <v>148.2</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18.0</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <f t="shared" si="2"/>
         <v>67.65</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="6">
         <v>44822.0</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>9.0</v>
       </c>
-      <c r="I20" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="2">
         <f t="shared" si="4"/>
         <v>157.65</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19.0</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <f t="shared" si="2"/>
         <v>67.1</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="6">
         <v>44823.0</v>
       </c>
-      <c r="H21" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="H21" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="2">
         <f t="shared" si="4"/>
         <v>167.1</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20.0</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <f t="shared" si="2"/>
         <v>66.55</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="6">
         <v>44824.0</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>11.0</v>
       </c>
-      <c r="I22" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="2">
         <f t="shared" si="4"/>
         <v>176.55</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21.0</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="6">
         <v>44825.0</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>12.0</v>
       </c>
-      <c r="I23" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="2">
         <f t="shared" si="4"/>
         <v>186</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22.0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <f t="shared" si="2"/>
         <v>65.45</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="6">
         <v>44826.0</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>13.0</v>
       </c>
-      <c r="I24" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="2">
         <f t="shared" si="4"/>
         <v>195.45</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23.0</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <f t="shared" si="2"/>
         <v>64.9</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="6">
         <v>44827.0</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>14.0</v>
       </c>
-      <c r="I25" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="2">
         <f t="shared" si="4"/>
         <v>204.9</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24.0</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <f t="shared" si="2"/>
         <v>64.35</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="6">
         <v>44828.0</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>15.0</v>
       </c>
-      <c r="I26" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="2">
         <f t="shared" si="4"/>
         <v>214.35</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25.0</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <f t="shared" si="2"/>
         <v>63.8</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="6">
         <v>44829.0</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>16.0</v>
       </c>
-      <c r="I27" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="2">
         <f t="shared" si="4"/>
         <v>223.8</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26.0</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <f t="shared" si="2"/>
         <v>63.25</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="6">
         <v>44830.0</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <v>17.0</v>
       </c>
-      <c r="I28" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="2">
         <f t="shared" si="4"/>
         <v>233.25</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27.0</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <f t="shared" si="2"/>
         <v>62.7</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="6">
         <v>44831.0</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <v>18.0</v>
       </c>
-      <c r="I29" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="2">
         <f t="shared" si="4"/>
         <v>242.7</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28.0</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <f t="shared" si="2"/>
         <v>62.15</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="6">
         <v>44832.0</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <v>19.0</v>
       </c>
-      <c r="I30" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="2">
         <f t="shared" si="4"/>
         <v>252.15</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29.0</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <f t="shared" si="2"/>
         <v>61.6</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="6">
         <v>44833.0</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <v>20.0</v>
       </c>
-      <c r="I31" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="2">
         <f t="shared" si="4"/>
         <v>261.6</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30.0</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="2">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <f t="shared" si="2"/>
         <v>61.05</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="6">
         <v>44834.0</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <v>21.0</v>
       </c>
-      <c r="I32" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="2">
         <f t="shared" si="4"/>
         <v>271.05</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31.0</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <f t="shared" ref="D33:D36" si="6">1*0.55</f>
         <v>0.55</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <f t="shared" si="2"/>
         <v>30.25</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="6">
         <v>44835.0</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <v>22.0</v>
       </c>
-      <c r="I33" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="2">
         <f t="shared" si="4"/>
         <v>250.25</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32.0</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <f t="shared" si="6"/>
         <v>0.55</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <f t="shared" si="2"/>
         <v>29.975</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="6">
         <v>44836.0</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <v>23.0</v>
       </c>
-      <c r="I34" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="2">
         <f t="shared" si="4"/>
         <v>259.975</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33.0</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="2">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <f t="shared" si="6"/>
         <v>0.55</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <f t="shared" si="2"/>
         <v>29.7</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="6">
         <v>44837.0</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <v>24.0</v>
       </c>
-      <c r="I35" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J35" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="2">
         <f t="shared" si="4"/>
         <v>269.7</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34.0</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <f t="shared" si="6"/>
         <v>0.55</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <f t="shared" si="2"/>
         <v>29.425</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="6">
         <v>44838.0</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <v>25.0</v>
       </c>
-      <c r="I36" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="2">
         <f t="shared" si="4"/>
         <v>279.425</v>
       </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="7">
+      <c r="B40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="8">
         <f>SUM(K3:K36)</f>
         <v>5440.1</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="B41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="9">
         <f>SUM(C3:C36)/34</f>
         <v>61.75</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="9">
         <f>H36</f>
         <v>25</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="7">
+      <c r="B43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="8">
         <f>K36</f>
         <v>279.425</v>
       </c>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t>№1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -209,12 +206,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -230,6 +227,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -466,8 +466,8 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="1">
+        <v>1.0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -497,37 +497,37 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -550,7 +550,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>70.0</v>
@@ -600,11 +600,11 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>2.0</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C36" si="5">C3-0.5</f>
@@ -659,7 +659,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="5"/>
@@ -710,11 +710,11 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>4.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="5"/>
@@ -769,7 +769,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="5"/>
@@ -820,11 +820,11 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>6.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="5"/>
@@ -879,7 +879,7 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="5"/>
@@ -930,11 +930,11 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>8.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="5"/>
@@ -989,7 +989,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="5"/>
@@ -1040,11 +1040,11 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>10.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="5"/>
@@ -1065,7 +1065,8 @@
         <v>44814.0</v>
       </c>
       <c r="H12" s="2">
-        <v>1.0</v>
+        <f t="shared" ref="H12:H36" si="6">G12-F12</f>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
         <v>10.0</v>
@@ -1099,7 +1100,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="5"/>
@@ -1120,7 +1121,8 @@
         <v>44815.0</v>
       </c>
       <c r="H13" s="2">
-        <v>2.0</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="I13" s="2">
         <v>10.0</v>
@@ -1150,11 +1152,11 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>12.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="5"/>
@@ -1175,7 +1177,8 @@
         <v>44816.0</v>
       </c>
       <c r="H14" s="2">
-        <v>3.0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="I14" s="2">
         <v>10.0</v>
@@ -1209,7 +1212,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="5"/>
@@ -1230,7 +1233,8 @@
         <v>44817.0</v>
       </c>
       <c r="H15" s="2">
-        <v>4.0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="I15" s="2">
         <v>10.0</v>
@@ -1260,11 +1264,11 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>14.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="5"/>
@@ -1285,7 +1289,8 @@
         <v>44818.0</v>
       </c>
       <c r="H16" s="2">
-        <v>5.0</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="I16" s="2">
         <v>10.0</v>
@@ -1319,7 +1324,7 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="5"/>
@@ -1340,7 +1345,8 @@
         <v>44819.0</v>
       </c>
       <c r="H17" s="2">
-        <v>6.0</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="I17" s="2">
         <v>10.0</v>
@@ -1370,11 +1376,11 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>16.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="5"/>
@@ -1395,7 +1401,8 @@
         <v>44820.0</v>
       </c>
       <c r="H18" s="2">
-        <v>7.0</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="I18" s="2">
         <v>10.0</v>
@@ -1429,7 +1436,7 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="5"/>
@@ -1450,7 +1457,8 @@
         <v>44821.0</v>
       </c>
       <c r="H19" s="2">
-        <v>8.0</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="I19" s="2">
         <v>10.0</v>
@@ -1480,11 +1488,11 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>18.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="5"/>
@@ -1505,7 +1513,8 @@
         <v>44822.0</v>
       </c>
       <c r="H20" s="2">
-        <v>9.0</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="I20" s="2">
         <v>10.0</v>
@@ -1539,7 +1548,7 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="5"/>
@@ -1560,7 +1569,8 @@
         <v>44823.0</v>
       </c>
       <c r="H21" s="2">
-        <v>10.0</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="I21" s="2">
         <v>10.0</v>
@@ -1590,11 +1600,11 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>20.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="5"/>
@@ -1615,7 +1625,8 @@
         <v>44824.0</v>
       </c>
       <c r="H22" s="2">
-        <v>11.0</v>
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="I22" s="2">
         <v>10.0</v>
@@ -1649,7 +1660,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="5"/>
@@ -1670,7 +1681,8 @@
         <v>44825.0</v>
       </c>
       <c r="H23" s="2">
-        <v>12.0</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="I23" s="2">
         <v>10.0</v>
@@ -1700,11 +1712,11 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>22.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="5"/>
@@ -1725,7 +1737,8 @@
         <v>44826.0</v>
       </c>
       <c r="H24" s="2">
-        <v>13.0</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="I24" s="2">
         <v>10.0</v>
@@ -1759,7 +1772,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
@@ -1780,7 +1793,8 @@
         <v>44827.0</v>
       </c>
       <c r="H25" s="2">
-        <v>14.0</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="I25" s="2">
         <v>10.0</v>
@@ -1810,11 +1824,11 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2">
+      <c r="A26" s="7">
         <v>24.0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="5"/>
@@ -1835,7 +1849,8 @@
         <v>44828.0</v>
       </c>
       <c r="H26" s="2">
-        <v>15.0</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="I26" s="2">
         <v>10.0</v>
@@ -1869,7 +1884,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="5"/>
@@ -1890,7 +1905,8 @@
         <v>44829.0</v>
       </c>
       <c r="H27" s="2">
-        <v>16.0</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="I27" s="2">
         <v>10.0</v>
@@ -1920,11 +1936,11 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2">
+      <c r="A28" s="7">
         <v>26.0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
@@ -1945,7 +1961,8 @@
         <v>44830.0</v>
       </c>
       <c r="H28" s="2">
-        <v>17.0</v>
+        <f t="shared" si="6"/>
+        <v>17</v>
       </c>
       <c r="I28" s="2">
         <v>10.0</v>
@@ -1979,7 +1996,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="5"/>
@@ -2000,7 +2017,8 @@
         <v>44831.0</v>
       </c>
       <c r="H29" s="2">
-        <v>18.0</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="I29" s="2">
         <v>10.0</v>
@@ -2030,11 +2048,11 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2">
+      <c r="A30" s="7">
         <v>28.0</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="5"/>
@@ -2055,7 +2073,8 @@
         <v>44832.0</v>
       </c>
       <c r="H30" s="2">
-        <v>19.0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="I30" s="2">
         <v>10.0</v>
@@ -2089,7 +2108,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="5"/>
@@ -2110,7 +2129,8 @@
         <v>44833.0</v>
       </c>
       <c r="H31" s="2">
-        <v>20.0</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="I31" s="2">
         <v>10.0</v>
@@ -2140,11 +2160,11 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2">
+      <c r="A32" s="7">
         <v>30.0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="5"/>
@@ -2165,7 +2185,8 @@
         <v>44834.0</v>
       </c>
       <c r="H32" s="2">
-        <v>21.0</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="I32" s="2">
         <v>10.0</v>
@@ -2199,14 +2220,14 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ref="D33:D36" si="6">1*0.55</f>
+        <f t="shared" ref="D33:D36" si="7">1*0.55</f>
         <v>0.55</v>
       </c>
       <c r="E33" s="2">
@@ -2220,7 +2241,8 @@
         <v>44835.0</v>
       </c>
       <c r="H33" s="2">
-        <v>22.0</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="I33" s="2">
         <v>10.0</v>
@@ -2250,18 +2272,18 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2">
+      <c r="A34" s="7">
         <v>32.0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55</v>
       </c>
       <c r="E34" s="2">
@@ -2275,7 +2297,8 @@
         <v>44836.0</v>
       </c>
       <c r="H34" s="2">
-        <v>23.0</v>
+        <f t="shared" si="6"/>
+        <v>23</v>
       </c>
       <c r="I34" s="2">
         <v>10.0</v>
@@ -2309,14 +2332,14 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55</v>
       </c>
       <c r="E35" s="2">
@@ -2330,7 +2353,8 @@
         <v>44837.0</v>
       </c>
       <c r="H35" s="2">
-        <v>24.0</v>
+        <f t="shared" si="6"/>
+        <v>24</v>
       </c>
       <c r="I35" s="2">
         <v>10.0</v>
@@ -2360,18 +2384,18 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2">
+      <c r="A36" s="7">
         <v>34.0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55</v>
       </c>
       <c r="E36" s="2">
@@ -2385,7 +2409,8 @@
         <v>44838.0</v>
       </c>
       <c r="H36" s="2">
-        <v>25.0</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="I36" s="2">
         <v>10.0</v>
@@ -2419,36 +2444,36 @@
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="8">
+        <v>45</v>
+      </c>
+      <c r="C40" s="9">
         <f>SUM(K3:K36)</f>
         <v>5440.1</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="9">
+        <v>46</v>
+      </c>
+      <c r="C41" s="10">
         <f>SUM(C3:C36)/34</f>
         <v>61.75</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="9">
+        <v>47</v>
+      </c>
+      <c r="C42" s="10">
         <f>H36</f>
         <v>25</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="8">
+        <v>48</v>
+      </c>
+      <c r="C43" s="9">
         <f>K36</f>
         <v>279.425</v>
       </c>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -153,6 +153,12 @@
     <t>Шаймарданова</t>
   </si>
   <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -162,14 +168,14 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма оплаты, руб.</t>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -191,6 +197,11 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,12 +217,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -232,6 +243,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -453,13 +467,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.11"/>
-    <col customWidth="1" min="2" max="2" width="25.78"/>
+    <col customWidth="1" min="2" max="2" width="31.0"/>
     <col customWidth="1" min="3" max="4" width="11.89"/>
     <col customWidth="1" min="5" max="5" width="10.44"/>
     <col customWidth="1" min="6" max="6" width="18.22"/>
     <col customWidth="1" min="7" max="7" width="12.67"/>
     <col customWidth="1" min="8" max="8" width="13.78"/>
-    <col customWidth="1" min="9" max="9" width="11.22"/>
+    <col customWidth="1" min="9" max="9" width="14.67"/>
     <col customWidth="1" min="10" max="10" width="10.44"/>
     <col customWidth="1" min="11" max="11" width="9.33"/>
     <col customWidth="1" min="12" max="26" width="6.78"/>
@@ -556,11 +570,11 @@
         <v>70.0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D32" si="1">1*1.1</f>
+        <f>A1*1.1</f>
         <v>1.1</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E36" si="2">C3*D3</f>
+        <f t="shared" ref="E3:E38" si="1">C3*D3</f>
         <v>77</v>
       </c>
       <c r="F3" s="5">
@@ -570,17 +584,18 @@
         <v>44805.0</v>
       </c>
       <c r="H3" s="2">
-        <v>0.0</v>
+        <f t="shared" ref="H3:H38" si="2">IF(G3&lt;=F3, 0, G3-F3)</f>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>10.0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J36" si="3">I3*H3</f>
+        <f t="shared" ref="J3:J38" si="3">I3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K36" si="4">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="4">E3+J3</f>
         <v>77</v>
       </c>
       <c r="L3" s="2"/>
@@ -607,28 +622,31 @@
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C36" si="5">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
+        <f t="shared" ref="D4:D34" si="6">D3</f>
+        <v>1.1</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="2"/>
         <v>76.45</v>
       </c>
       <c r="F4" s="5">
-        <v>44813.0</v>
+        <f t="shared" ref="F4:F38" si="7">F3</f>
+        <v>44813</v>
       </c>
       <c r="G4" s="6">
         <v>44806.0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>10.0</v>
+        <f t="shared" ref="I4:I38" si="8">I3</f>
+        <v>10</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="3"/>
@@ -666,24 +684,27 @@
         <v>69</v>
       </c>
       <c r="D5" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="2"/>
         <v>75.9</v>
       </c>
       <c r="F5" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G5" s="6">
         <v>44807.0</v>
       </c>
       <c r="H5" s="2">
-        <v>0.0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="3"/>
@@ -721,24 +742,27 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="2"/>
         <v>75.35</v>
       </c>
       <c r="F6" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G6" s="6">
         <v>44808.0</v>
       </c>
       <c r="H6" s="2">
-        <v>0.0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="3"/>
@@ -776,24 +800,27 @@
         <v>68</v>
       </c>
       <c r="D7" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="2"/>
         <v>74.8</v>
       </c>
       <c r="F7" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G7" s="6">
         <v>44809.0</v>
       </c>
       <c r="H7" s="2">
-        <v>0.0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="3"/>
@@ -831,24 +858,27 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="2"/>
         <v>74.25</v>
       </c>
       <c r="F8" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G8" s="6">
         <v>44810.0</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
@@ -886,24 +916,27 @@
         <v>67</v>
       </c>
       <c r="D9" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="2"/>
         <v>73.7</v>
       </c>
       <c r="F9" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G9" s="6">
         <v>44811.0</v>
       </c>
       <c r="H9" s="2">
-        <v>0.0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
@@ -941,24 +974,27 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="2"/>
         <v>73.15</v>
       </c>
       <c r="F10" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G10" s="6">
         <v>44812.0</v>
       </c>
       <c r="H10" s="2">
-        <v>0.0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
@@ -996,24 +1032,27 @@
         <v>66</v>
       </c>
       <c r="D11" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
         <v>72.6</v>
       </c>
       <c r="F11" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G11" s="6">
         <v>44813.0</v>
       </c>
       <c r="H11" s="2">
-        <v>0.0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="3"/>
@@ -1051,25 +1090,27 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="2"/>
         <v>72.05</v>
       </c>
       <c r="F12" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G12" s="6">
         <v>44814.0</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ref="H12:H36" si="6">G12-F12</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="3"/>
@@ -1107,25 +1148,27 @@
         <v>65</v>
       </c>
       <c r="D13" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="2"/>
         <v>71.5</v>
       </c>
       <c r="F13" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G13" s="6">
         <v>44815.0</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="3"/>
@@ -1163,25 +1206,27 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="2"/>
         <v>70.95</v>
       </c>
       <c r="F14" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G14" s="6">
         <v>44816.0</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="3"/>
@@ -1219,25 +1264,27 @@
         <v>64</v>
       </c>
       <c r="D15" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="2"/>
         <v>70.4</v>
       </c>
       <c r="F15" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G15" s="6">
         <v>44817.0</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="3"/>
@@ -1275,25 +1322,27 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="2"/>
         <v>69.85</v>
       </c>
       <c r="F16" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G16" s="6">
         <v>44818.0</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="3"/>
@@ -1331,25 +1380,27 @@
         <v>63</v>
       </c>
       <c r="D17" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="2"/>
         <v>69.3</v>
       </c>
       <c r="F17" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G17" s="6">
         <v>44819.0</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
@@ -1387,25 +1438,27 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="2"/>
         <v>68.75</v>
       </c>
       <c r="F18" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G18" s="6">
         <v>44820.0</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="3"/>
@@ -1443,25 +1496,27 @@
         <v>62</v>
       </c>
       <c r="D19" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="2"/>
         <v>68.2</v>
       </c>
       <c r="F19" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G19" s="6">
         <v>44821.0</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
@@ -1499,25 +1554,27 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="2"/>
         <v>67.65</v>
       </c>
       <c r="F20" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G20" s="6">
         <v>44822.0</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="3"/>
@@ -1555,25 +1612,27 @@
         <v>61</v>
       </c>
       <c r="D21" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="2"/>
         <v>67.1</v>
       </c>
       <c r="F21" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G21" s="6">
         <v>44823.0</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="3"/>
@@ -1611,25 +1670,27 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="2"/>
         <v>66.55</v>
       </c>
       <c r="F22" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G22" s="6">
         <v>44824.0</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="3"/>
@@ -1667,25 +1728,27 @@
         <v>60</v>
       </c>
       <c r="D23" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="F23" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G23" s="6">
         <v>44825.0</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="3"/>
@@ -1723,25 +1786,27 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="2"/>
         <v>65.45</v>
       </c>
       <c r="F24" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G24" s="6">
         <v>44826.0</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="3"/>
@@ -1779,25 +1844,27 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="2"/>
         <v>64.9</v>
       </c>
       <c r="F25" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G25" s="6">
         <v>44827.0</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="3"/>
@@ -1835,25 +1902,27 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="2"/>
         <v>64.35</v>
       </c>
       <c r="F26" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G26" s="6">
         <v>44828.0</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="3"/>
@@ -1891,25 +1960,27 @@
         <v>58</v>
       </c>
       <c r="D27" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="2"/>
         <v>63.8</v>
       </c>
       <c r="F27" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G27" s="6">
         <v>44829.0</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="3"/>
@@ -1947,25 +2018,27 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="2"/>
         <v>63.25</v>
       </c>
       <c r="F28" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G28" s="6">
         <v>44830.0</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="3"/>
@@ -2003,25 +2076,27 @@
         <v>57</v>
       </c>
       <c r="D29" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="2"/>
         <v>62.7</v>
       </c>
       <c r="F29" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G29" s="6">
         <v>44831.0</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="3"/>
@@ -2059,25 +2134,27 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="2"/>
         <v>62.15</v>
       </c>
       <c r="F30" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G30" s="6">
         <v>44832.0</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="3"/>
@@ -2115,25 +2192,27 @@
         <v>56</v>
       </c>
       <c r="D31" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="2"/>
         <v>61.6</v>
       </c>
       <c r="F31" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G31" s="6">
         <v>44833.0</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="3"/>
@@ -2171,25 +2250,27 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>1.1</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="2"/>
         <v>61.05</v>
       </c>
       <c r="F32" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G32" s="6">
         <v>44834.0</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="3"/>
@@ -2227,25 +2308,27 @@
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ref="D33:D36" si="7">1*0.55</f>
-        <v>0.55</v>
+        <f t="shared" si="6"/>
+        <v>1.1</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="2"/>
-        <v>30.25</v>
+        <f t="shared" si="1"/>
+        <v>60.5</v>
       </c>
       <c r="F33" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="7"/>
+        <v>44813</v>
       </c>
       <c r="G33" s="6">
         <v>44835.0</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="3"/>
@@ -2253,7 +2336,7 @@
       </c>
       <c r="K33" s="2">
         <f t="shared" si="4"/>
-        <v>250.25</v>
+        <v>280.5</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2283,25 +2366,27 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
+        <f t="shared" si="6"/>
+        <v>1.1</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>59.95</v>
+      </c>
+      <c r="F34" s="5">
         <f t="shared" si="7"/>
-        <v>0.55</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="2"/>
-        <v>29.975</v>
-      </c>
-      <c r="F34" s="5">
-        <v>44813.0</v>
+        <v>44813</v>
       </c>
       <c r="G34" s="6">
         <v>44836.0</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="3"/>
@@ -2309,7 +2394,7 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" si="4"/>
-        <v>259.975</v>
+        <v>289.95</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2339,25 +2424,27 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
+        <f>A1*1.1/2</f>
+        <v>0.55</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>29.7</v>
+      </c>
+      <c r="F35" s="5">
         <f t="shared" si="7"/>
-        <v>0.55</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="2"/>
-        <v>29.7</v>
-      </c>
-      <c r="F35" s="5">
-        <v>44813.0</v>
+        <v>44813</v>
       </c>
       <c r="G35" s="6">
         <v>44837.0</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="3"/>
@@ -2395,25 +2482,27 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
+        <f t="shared" ref="D36:D38" si="9">D35</f>
+        <v>0.55</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>29.425</v>
+      </c>
+      <c r="F36" s="5">
         <f t="shared" si="7"/>
-        <v>0.55</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="2"/>
-        <v>29.425</v>
-      </c>
-      <c r="F36" s="5">
-        <v>44813.0</v>
+        <v>44813</v>
       </c>
       <c r="G36" s="6">
         <v>44838.0</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <v>10.0</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="3"/>
@@ -2439,43 +2528,129 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="9">
+        <f t="shared" ref="A37:A38" si="10">A36+1</f>
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="9"/>
+        <v>0.55</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>29.15</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="6">
+        <v>44839.0</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="4"/>
+        <v>289.15</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="9">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="5"/>
+        <v>52.5</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="9"/>
+        <v>0.55</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>28.875</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="6">
+        <v>44840.0</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="4"/>
+        <v>298.875</v>
+      </c>
+    </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="9">
+        <v>47</v>
+      </c>
+      <c r="C40" s="10">
         <f>SUM(K3:K36)</f>
-        <v>5440.1</v>
+        <v>5500.325</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="10">
-        <f>SUM(C3:C36)/34</f>
-        <v>61.75</v>
+        <v>48</v>
+      </c>
+      <c r="C41" s="11">
+        <f>AVERAGE(C3:C38)</f>
+        <v>61.25</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="10">
-        <f>H36</f>
-        <v>25</v>
+        <v>49</v>
+      </c>
+      <c r="C42" s="11">
+        <f>H38</f>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="9">
-        <f>K36</f>
-        <v>279.425</v>
+      <c r="B43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="10">
+        <f>K38</f>
+        <v>298.875</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -21,7 +21,7 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
     <t>Площадь, кв.м.</t>
@@ -513,7 +513,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -638,14 +638,15 @@
         <v>44813</v>
       </c>
       <c r="G4" s="6">
-        <v>44806.0</v>
+        <f t="shared" ref="G4:G38" si="8">G3+1</f>
+        <v>44806</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I38" si="8">I3</f>
+        <f t="shared" ref="I4:I38" si="9">I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -696,14 +697,15 @@
         <v>44813</v>
       </c>
       <c r="G5" s="6">
-        <v>44807.0</v>
+        <f t="shared" si="8"/>
+        <v>44807</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -754,14 +756,15 @@
         <v>44813</v>
       </c>
       <c r="G6" s="6">
-        <v>44808.0</v>
+        <f t="shared" si="8"/>
+        <v>44808</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -812,14 +815,15 @@
         <v>44813</v>
       </c>
       <c r="G7" s="6">
-        <v>44809.0</v>
+        <f t="shared" si="8"/>
+        <v>44809</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -870,14 +874,15 @@
         <v>44813</v>
       </c>
       <c r="G8" s="6">
-        <v>44810.0</v>
+        <f t="shared" si="8"/>
+        <v>44810</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -928,14 +933,15 @@
         <v>44813</v>
       </c>
       <c r="G9" s="6">
-        <v>44811.0</v>
+        <f t="shared" si="8"/>
+        <v>44811</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -986,14 +992,15 @@
         <v>44813</v>
       </c>
       <c r="G10" s="6">
-        <v>44812.0</v>
+        <f t="shared" si="8"/>
+        <v>44812</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -1044,14 +1051,15 @@
         <v>44813</v>
       </c>
       <c r="G11" s="6">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1102,14 +1110,15 @@
         <v>44813</v>
       </c>
       <c r="G12" s="6">
-        <v>44814.0</v>
+        <f t="shared" si="8"/>
+        <v>44814</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1160,14 +1169,15 @@
         <v>44813</v>
       </c>
       <c r="G13" s="6">
-        <v>44815.0</v>
+        <f t="shared" si="8"/>
+        <v>44815</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1218,14 +1228,15 @@
         <v>44813</v>
       </c>
       <c r="G14" s="6">
-        <v>44816.0</v>
+        <f t="shared" si="8"/>
+        <v>44816</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1276,14 +1287,15 @@
         <v>44813</v>
       </c>
       <c r="G15" s="6">
-        <v>44817.0</v>
+        <f t="shared" si="8"/>
+        <v>44817</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1334,14 +1346,15 @@
         <v>44813</v>
       </c>
       <c r="G16" s="6">
-        <v>44818.0</v>
+        <f t="shared" si="8"/>
+        <v>44818</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1392,14 +1405,15 @@
         <v>44813</v>
       </c>
       <c r="G17" s="6">
-        <v>44819.0</v>
+        <f t="shared" si="8"/>
+        <v>44819</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1450,14 +1464,15 @@
         <v>44813</v>
       </c>
       <c r="G18" s="6">
-        <v>44820.0</v>
+        <f t="shared" si="8"/>
+        <v>44820</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1508,14 +1523,15 @@
         <v>44813</v>
       </c>
       <c r="G19" s="6">
-        <v>44821.0</v>
+        <f t="shared" si="8"/>
+        <v>44821</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1566,14 +1582,15 @@
         <v>44813</v>
       </c>
       <c r="G20" s="6">
-        <v>44822.0</v>
+        <f t="shared" si="8"/>
+        <v>44822</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1624,14 +1641,15 @@
         <v>44813</v>
       </c>
       <c r="G21" s="6">
-        <v>44823.0</v>
+        <f t="shared" si="8"/>
+        <v>44823</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1682,14 +1700,15 @@
         <v>44813</v>
       </c>
       <c r="G22" s="6">
-        <v>44824.0</v>
+        <f t="shared" si="8"/>
+        <v>44824</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1740,14 +1759,15 @@
         <v>44813</v>
       </c>
       <c r="G23" s="6">
-        <v>44825.0</v>
+        <f t="shared" si="8"/>
+        <v>44825</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1798,14 +1818,15 @@
         <v>44813</v>
       </c>
       <c r="G24" s="6">
-        <v>44826.0</v>
+        <f t="shared" si="8"/>
+        <v>44826</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1856,14 +1877,15 @@
         <v>44813</v>
       </c>
       <c r="G25" s="6">
-        <v>44827.0</v>
+        <f t="shared" si="8"/>
+        <v>44827</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1914,14 +1936,15 @@
         <v>44813</v>
       </c>
       <c r="G26" s="6">
-        <v>44828.0</v>
+        <f t="shared" si="8"/>
+        <v>44828</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1972,14 +1995,15 @@
         <v>44813</v>
       </c>
       <c r="G27" s="6">
-        <v>44829.0</v>
+        <f t="shared" si="8"/>
+        <v>44829</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -2030,14 +2054,15 @@
         <v>44813</v>
       </c>
       <c r="G28" s="6">
-        <v>44830.0</v>
+        <f t="shared" si="8"/>
+        <v>44830</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -2088,14 +2113,15 @@
         <v>44813</v>
       </c>
       <c r="G29" s="6">
-        <v>44831.0</v>
+        <f t="shared" si="8"/>
+        <v>44831</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -2146,14 +2172,15 @@
         <v>44813</v>
       </c>
       <c r="G30" s="6">
-        <v>44832.0</v>
+        <f t="shared" si="8"/>
+        <v>44832</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -2204,14 +2231,15 @@
         <v>44813</v>
       </c>
       <c r="G31" s="6">
-        <v>44833.0</v>
+        <f t="shared" si="8"/>
+        <v>44833</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -2262,14 +2290,15 @@
         <v>44813</v>
       </c>
       <c r="G32" s="6">
-        <v>44834.0</v>
+        <f t="shared" si="8"/>
+        <v>44834</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -2320,14 +2349,15 @@
         <v>44813</v>
       </c>
       <c r="G33" s="6">
-        <v>44835.0</v>
+        <f t="shared" si="8"/>
+        <v>44835</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2378,14 +2408,15 @@
         <v>44813</v>
       </c>
       <c r="G34" s="6">
-        <v>44836.0</v>
+        <f t="shared" si="8"/>
+        <v>44836</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2436,14 +2467,15 @@
         <v>44813</v>
       </c>
       <c r="G35" s="6">
-        <v>44837.0</v>
+        <f t="shared" si="8"/>
+        <v>44837</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2482,7 +2514,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="9">D35</f>
+        <f t="shared" ref="D36:D38" si="10">D35</f>
         <v>0.55</v>
       </c>
       <c r="E36" s="2">
@@ -2494,14 +2526,15 @@
         <v>44813</v>
       </c>
       <c r="G36" s="6">
-        <v>44838.0</v>
+        <f t="shared" si="8"/>
+        <v>44838</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2530,7 +2563,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="9">
-        <f t="shared" ref="A37:A38" si="10">A36+1</f>
+        <f t="shared" ref="A37:A38" si="11">A36+1</f>
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -2541,7 +2574,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.55</v>
       </c>
       <c r="E37" s="2">
@@ -2553,14 +2586,15 @@
         <v>44813</v>
       </c>
       <c r="G37" s="6">
-        <v>44839.0</v>
+        <f t="shared" si="8"/>
+        <v>44839</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2574,7 +2608,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -2585,7 +2619,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.55</v>
       </c>
       <c r="E38" s="2">
@@ -2597,14 +2631,15 @@
         <v>44813</v>
       </c>
       <c r="G38" s="6">
-        <v>44840.0</v>
+        <f t="shared" si="8"/>
+        <v>44840</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -162,7 +162,7 @@
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, м2</t>
+    <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
@@ -175,7 +175,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$р.-419]#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -185,6 +189,11 @@
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -217,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -233,7 +242,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -242,14 +251,15 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -473,7 +483,7 @@
     <col customWidth="1" min="6" max="6" width="18.22"/>
     <col customWidth="1" min="7" max="7" width="12.67"/>
     <col customWidth="1" min="8" max="8" width="13.78"/>
-    <col customWidth="1" min="9" max="9" width="14.67"/>
+    <col customWidth="1" min="9" max="9" width="16.44"/>
     <col customWidth="1" min="10" max="10" width="10.44"/>
     <col customWidth="1" min="11" max="11" width="9.33"/>
     <col customWidth="1" min="12" max="26" width="6.78"/>
@@ -584,7 +594,7 @@
         <v>44805.0</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H38" si="2">IF(G3&lt;=F3, 0, G3-F3)</f>
+        <f t="shared" ref="H3:H38" si="2">IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
@@ -616,17 +626,18 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="7">
-        <v>2.0</v>
+        <f t="shared" ref="A4:A38" si="5">A3+1</f>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="6">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D34" si="6">D3</f>
+        <f t="shared" ref="D4:D34" si="7">D3</f>
         <v>1.1</v>
       </c>
       <c r="E4" s="2">
@@ -634,11 +645,11 @@
         <v>76.45</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F38" si="7">F3</f>
+        <f t="shared" ref="F4:F38" si="8">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" ref="G4:G38" si="8">G3+1</f>
+        <f t="shared" ref="G4:G38" si="9">G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
@@ -646,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I38" si="9">I3</f>
+        <f t="shared" ref="I4:I38" si="10">I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -674,18 +685,19 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2">
-        <v>3.0</v>
+      <c r="A5" s="7">
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E5" s="2">
@@ -693,11 +705,11 @@
         <v>75.9</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -705,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -734,17 +746,18 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="7">
-        <v>4.0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E6" s="2">
@@ -752,11 +765,11 @@
         <v>75.35</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -764,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -792,18 +805,19 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2">
-        <v>5.0</v>
+      <c r="A7" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E7" s="2">
@@ -811,11 +825,11 @@
         <v>74.8</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -823,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -852,17 +866,18 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="7">
-        <v>6.0</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E8" s="2">
@@ -870,11 +885,11 @@
         <v>74.25</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -882,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -910,18 +925,19 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2">
-        <v>7.0</v>
+      <c r="A9" s="7">
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E9" s="2">
@@ -929,11 +945,11 @@
         <v>73.7</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -941,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -970,17 +986,18 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="7">
-        <v>8.0</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E10" s="2">
@@ -988,11 +1005,11 @@
         <v>73.15</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -1000,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -1028,18 +1045,19 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2">
-        <v>9.0</v>
+      <c r="A11" s="7">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E11" s="2">
@@ -1047,11 +1065,11 @@
         <v>72.6</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -1059,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1088,17 +1106,18 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="7">
-        <v>10.0</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E12" s="2">
@@ -1106,11 +1125,11 @@
         <v>72.05</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -1118,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1146,18 +1165,19 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2">
-        <v>11.0</v>
+      <c r="A13" s="7">
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E13" s="2">
@@ -1165,11 +1185,11 @@
         <v>71.5</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1177,7 +1197,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1206,17 +1226,18 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="7">
-        <v>12.0</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E14" s="2">
@@ -1224,11 +1245,11 @@
         <v>70.95</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1236,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1264,18 +1285,19 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2">
-        <v>13.0</v>
+      <c r="A15" s="7">
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E15" s="2">
@@ -1283,11 +1305,11 @@
         <v>70.4</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1295,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1324,17 +1346,18 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="7">
-        <v>14.0</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E16" s="2">
@@ -1342,11 +1365,11 @@
         <v>69.85</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1354,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1382,18 +1405,19 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2">
-        <v>15.0</v>
+      <c r="A17" s="7">
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E17" s="2">
@@ -1401,11 +1425,11 @@
         <v>69.3</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1413,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1442,17 +1466,18 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="7">
-        <v>16.0</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E18" s="2">
@@ -1460,11 +1485,11 @@
         <v>68.75</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1472,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1500,18 +1525,19 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2">
-        <v>17.0</v>
+      <c r="A19" s="7">
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E19" s="2">
@@ -1519,11 +1545,11 @@
         <v>68.2</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1531,7 +1557,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1560,17 +1586,18 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="7">
-        <v>18.0</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E20" s="2">
@@ -1578,11 +1605,11 @@
         <v>67.65</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1590,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1618,18 +1645,19 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2">
-        <v>19.0</v>
+      <c r="A21" s="7">
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E21" s="2">
@@ -1637,11 +1665,11 @@
         <v>67.1</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1649,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1678,17 +1706,18 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7">
-        <v>20.0</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E22" s="2">
@@ -1696,11 +1725,11 @@
         <v>66.55</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1708,7 +1737,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1736,18 +1765,19 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2">
-        <v>21.0</v>
+      <c r="A23" s="7">
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E23" s="2">
@@ -1755,11 +1785,11 @@
         <v>66</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1767,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1796,17 +1826,18 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7">
-        <v>22.0</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E24" s="2">
@@ -1814,11 +1845,11 @@
         <v>65.45</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1826,7 +1857,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1854,18 +1885,19 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2">
-        <v>23.0</v>
+      <c r="A25" s="7">
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E25" s="2">
@@ -1873,11 +1905,11 @@
         <v>64.9</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1885,7 +1917,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1914,17 +1946,18 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="7">
-        <v>24.0</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E26" s="2">
@@ -1932,11 +1965,11 @@
         <v>64.35</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1944,7 +1977,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1972,18 +2005,19 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2">
-        <v>25.0</v>
+      <c r="A27" s="7">
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E27" s="2">
@@ -1991,11 +2025,11 @@
         <v>63.8</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -2003,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -2032,17 +2066,18 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="7">
-        <v>26.0</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E28" s="2">
@@ -2050,11 +2085,11 @@
         <v>63.25</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -2062,7 +2097,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -2090,18 +2125,19 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2">
-        <v>27.0</v>
+      <c r="A29" s="7">
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E29" s="2">
@@ -2109,11 +2145,11 @@
         <v>62.7</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -2121,7 +2157,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -2150,17 +2186,18 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="7">
-        <v>28.0</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E30" s="2">
@@ -2168,11 +2205,11 @@
         <v>62.15</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -2180,7 +2217,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -2208,18 +2245,19 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2">
-        <v>29.0</v>
+      <c r="A31" s="7">
+        <f t="shared" si="5"/>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E31" s="2">
@@ -2227,11 +2265,11 @@
         <v>61.6</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -2239,7 +2277,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -2268,17 +2306,18 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="7">
-        <v>30.0</v>
+        <f t="shared" si="5"/>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E32" s="2">
@@ -2286,11 +2325,11 @@
         <v>61.05</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -2298,7 +2337,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -2326,18 +2365,19 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2">
-        <v>31.0</v>
+      <c r="A33" s="7">
+        <f t="shared" si="5"/>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E33" s="2">
@@ -2345,11 +2385,11 @@
         <v>60.5</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -2357,7 +2397,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2386,17 +2426,18 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="7">
-        <v>32.0</v>
+        <f t="shared" si="5"/>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E34" s="2">
@@ -2404,11 +2445,11 @@
         <v>59.95</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -2416,7 +2457,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2444,14 +2485,15 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2">
-        <v>33.0</v>
+      <c r="A35" s="7">
+        <f t="shared" si="5"/>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -2463,11 +2505,11 @@
         <v>29.7</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -2475,7 +2517,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2504,17 +2546,18 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="7">
-        <v>34.0</v>
+        <f t="shared" si="5"/>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="10">D35</f>
+        <f t="shared" ref="D36:D38" si="11">D35</f>
         <v>0.55</v>
       </c>
       <c r="E36" s="2">
@@ -2522,11 +2565,11 @@
         <v>29.425</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -2534,7 +2577,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2562,19 +2605,19 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="9">
-        <f t="shared" ref="A37:A38" si="11">A36+1</f>
+      <c r="A37" s="7">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.55</v>
       </c>
       <c r="E37" s="2">
@@ -2582,11 +2625,11 @@
         <v>29.15</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2594,7 +2637,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2607,19 +2650,19 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9">
-        <f t="shared" si="11"/>
+      <c r="A38" s="7">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.55</v>
       </c>
       <c r="E38" s="2">
@@ -2627,11 +2670,11 @@
         <v>28.875</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2639,7 +2682,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2653,16 +2696,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="10">
-        <f>SUM(K3:K36)</f>
-        <v>5500.325</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>6088</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="11">
@@ -2671,11 +2714,11 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="11">
-        <f>H38</f>
+        <f>MAX(H3,H38)</f>
         <v>27</v>
       </c>
     </row>
@@ -2683,8 +2726,8 @@
       <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="10">
-        <f>K38</f>
+      <c r="C43" s="12">
+        <f>MAX(K3,K38)</f>
         <v>298.875</v>
       </c>
     </row>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -176,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$р.-419]#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0[$ ₽]"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -211,6 +211,11 @@
       <color theme="1"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -257,6 +262,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -2694,12 +2700,14 @@
         <v>298.875</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="C39" s="10"/>
+    </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="11">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>6088</v>
       </c>
@@ -2708,7 +2716,7 @@
       <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="12">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2717,7 +2725,7 @@
       <c r="B42" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="12">
         <f>MAX(H3,H38)</f>
         <v>27</v>
       </c>
@@ -2726,7 +2734,7 @@
       <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="13">
         <f>MAX(K3,K38)</f>
         <v>298.875</v>
       </c>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -175,9 +175,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0[$ ₽]"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -231,18 +230,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -265,7 +267,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -529,7 +531,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -550,7 +552,7 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -593,10 +595,10 @@
         <f t="shared" ref="E3:E38" si="1">C3*D3</f>
         <v>77</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>44813.0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>44805.0</v>
       </c>
       <c r="H3" s="2">
@@ -631,11 +633,11 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <f t="shared" ref="A4:A38" si="5">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
@@ -650,11 +652,11 @@
         <f t="shared" si="1"/>
         <v>76.45</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <f t="shared" ref="F4:F38" si="8">F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <f t="shared" ref="G4:G38" si="9">G3+1</f>
         <v>44806</v>
       </c>
@@ -663,8 +665,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I38" si="10">I3</f>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="3"/>
@@ -691,7 +692,7 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -710,11 +711,11 @@
         <f t="shared" si="1"/>
         <v>75.9</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <f t="shared" si="9"/>
         <v>44807</v>
       </c>
@@ -723,8 +724,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" si="3"/>
@@ -751,7 +751,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -770,11 +770,11 @@
         <f t="shared" si="1"/>
         <v>75.35</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <f t="shared" si="9"/>
         <v>44808</v>
       </c>
@@ -783,8 +783,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="3"/>
@@ -811,7 +810,7 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -830,11 +829,11 @@
         <f t="shared" si="1"/>
         <v>74.8</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <f t="shared" si="9"/>
         <v>44809</v>
       </c>
@@ -843,8 +842,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="3"/>
@@ -871,7 +869,7 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -890,11 +888,11 @@
         <f t="shared" si="1"/>
         <v>74.25</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <f t="shared" si="9"/>
         <v>44810</v>
       </c>
@@ -903,8 +901,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="3"/>
@@ -931,7 +928,7 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -950,11 +947,11 @@
         <f t="shared" si="1"/>
         <v>73.7</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <f t="shared" si="9"/>
         <v>44811</v>
       </c>
@@ -963,8 +960,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="3"/>
@@ -991,7 +987,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -1010,11 +1006,11 @@
         <f t="shared" si="1"/>
         <v>73.15</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <f t="shared" si="9"/>
         <v>44812</v>
       </c>
@@ -1023,8 +1019,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
@@ -1051,7 +1046,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
@@ -1070,11 +1065,11 @@
         <f t="shared" si="1"/>
         <v>72.6</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <f t="shared" si="9"/>
         <v>44813</v>
       </c>
@@ -1083,8 +1078,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="3"/>
@@ -1111,7 +1105,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -1130,11 +1124,11 @@
         <f t="shared" si="1"/>
         <v>72.05</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <f t="shared" si="9"/>
         <v>44814</v>
       </c>
@@ -1143,8 +1137,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="3"/>
@@ -1171,7 +1164,7 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
@@ -1190,11 +1183,11 @@
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <f t="shared" si="9"/>
         <v>44815</v>
       </c>
@@ -1203,8 +1196,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="3"/>
@@ -1231,7 +1223,7 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -1250,11 +1242,11 @@
         <f t="shared" si="1"/>
         <v>70.95</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <f t="shared" si="9"/>
         <v>44816</v>
       </c>
@@ -1263,8 +1255,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="3"/>
@@ -1291,7 +1282,7 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
@@ -1310,11 +1301,11 @@
         <f t="shared" si="1"/>
         <v>70.4</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="7">
         <f t="shared" si="9"/>
         <v>44817</v>
       </c>
@@ -1323,8 +1314,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="3"/>
@@ -1351,7 +1341,7 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
@@ -1370,11 +1360,11 @@
         <f t="shared" si="1"/>
         <v>69.85</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <f t="shared" si="9"/>
         <v>44818</v>
       </c>
@@ -1383,8 +1373,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="3"/>
@@ -1411,7 +1400,7 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
@@ -1430,11 +1419,11 @@
         <f t="shared" si="1"/>
         <v>69.3</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <f t="shared" si="9"/>
         <v>44819</v>
       </c>
@@ -1443,8 +1432,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="3"/>
@@ -1471,7 +1459,7 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
@@ -1490,11 +1478,11 @@
         <f t="shared" si="1"/>
         <v>68.75</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <f t="shared" si="9"/>
         <v>44820</v>
       </c>
@@ -1503,8 +1491,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="3"/>
@@ -1531,7 +1518,7 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
@@ -1550,11 +1537,11 @@
         <f t="shared" si="1"/>
         <v>68.2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <f t="shared" si="9"/>
         <v>44821</v>
       </c>
@@ -1563,8 +1550,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="3"/>
@@ -1591,7 +1577,7 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
@@ -1610,11 +1596,11 @@
         <f t="shared" si="1"/>
         <v>67.65</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <f t="shared" si="9"/>
         <v>44822</v>
       </c>
@@ -1623,8 +1609,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="3"/>
@@ -1651,7 +1636,7 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
@@ -1670,11 +1655,11 @@
         <f t="shared" si="1"/>
         <v>67.1</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <f t="shared" si="9"/>
         <v>44823</v>
       </c>
@@ -1683,8 +1668,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" si="3"/>
@@ -1711,7 +1695,7 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -1730,11 +1714,11 @@
         <f t="shared" si="1"/>
         <v>66.55</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="7">
         <f t="shared" si="9"/>
         <v>44824</v>
       </c>
@@ -1743,8 +1727,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="3"/>
@@ -1771,7 +1754,7 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
@@ -1790,11 +1773,11 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="7">
         <f t="shared" si="9"/>
         <v>44825</v>
       </c>
@@ -1803,8 +1786,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="3"/>
@@ -1831,7 +1813,7 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
@@ -1850,11 +1832,11 @@
         <f t="shared" si="1"/>
         <v>65.45</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="7">
         <f t="shared" si="9"/>
         <v>44826</v>
       </c>
@@ -1863,8 +1845,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="3"/>
@@ -1891,7 +1872,7 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
@@ -1910,11 +1891,11 @@
         <f t="shared" si="1"/>
         <v>64.9</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="7">
         <f t="shared" si="9"/>
         <v>44827</v>
       </c>
@@ -1923,8 +1904,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="3"/>
@@ -1951,7 +1931,7 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -1970,11 +1950,11 @@
         <f t="shared" si="1"/>
         <v>64.35</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="7">
         <f t="shared" si="9"/>
         <v>44828</v>
       </c>
@@ -1983,8 +1963,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="3"/>
@@ -2011,7 +1990,7 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
@@ -2030,11 +2009,11 @@
         <f t="shared" si="1"/>
         <v>63.8</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="7">
         <f t="shared" si="9"/>
         <v>44829</v>
       </c>
@@ -2043,8 +2022,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="3"/>
@@ -2071,7 +2049,7 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
@@ -2090,11 +2068,11 @@
         <f t="shared" si="1"/>
         <v>63.25</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="7">
         <f t="shared" si="9"/>
         <v>44830</v>
       </c>
@@ -2103,8 +2081,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="3"/>
@@ -2131,7 +2108,7 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
@@ -2150,11 +2127,11 @@
         <f t="shared" si="1"/>
         <v>62.7</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="7">
         <f t="shared" si="9"/>
         <v>44831</v>
       </c>
@@ -2163,8 +2140,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="3"/>
@@ -2191,7 +2167,7 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
@@ -2210,11 +2186,11 @@
         <f t="shared" si="1"/>
         <v>62.15</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="7">
         <f t="shared" si="9"/>
         <v>44832</v>
       </c>
@@ -2223,8 +2199,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="3"/>
@@ -2251,7 +2226,7 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
@@ -2270,11 +2245,11 @@
         <f t="shared" si="1"/>
         <v>61.6</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="7">
         <f t="shared" si="9"/>
         <v>44833</v>
       </c>
@@ -2283,8 +2258,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="3"/>
@@ -2311,7 +2285,7 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
@@ -2330,11 +2304,11 @@
         <f t="shared" si="1"/>
         <v>61.05</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="7">
         <f t="shared" si="9"/>
         <v>44834</v>
       </c>
@@ -2343,8 +2317,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="3"/>
@@ -2371,7 +2344,7 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
@@ -2390,11 +2363,11 @@
         <f t="shared" si="1"/>
         <v>60.5</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="7">
         <f t="shared" si="9"/>
         <v>44835</v>
       </c>
@@ -2403,8 +2376,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="3"/>
@@ -2431,7 +2403,7 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
@@ -2450,11 +2422,11 @@
         <f t="shared" si="1"/>
         <v>59.95</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="7">
         <f t="shared" si="9"/>
         <v>44836</v>
       </c>
@@ -2463,8 +2435,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="3"/>
@@ -2491,7 +2462,7 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
@@ -2510,11 +2481,11 @@
         <f t="shared" si="1"/>
         <v>29.7</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="7">
         <f t="shared" si="9"/>
         <v>44837</v>
       </c>
@@ -2523,8 +2494,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="3"/>
@@ -2551,7 +2521,7 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
@@ -2563,18 +2533,18 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="11">D35</f>
+        <f t="shared" ref="D36:D38" si="10">D35</f>
         <v>0.55</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>29.425</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="7">
         <f t="shared" si="9"/>
         <v>44838</v>
       </c>
@@ -2583,8 +2553,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="3"/>
@@ -2611,11 +2580,11 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="2">
@@ -2623,18 +2592,18 @@
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.55</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>29.15</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="7">
         <f t="shared" si="9"/>
         <v>44839</v>
       </c>
@@ -2643,8 +2612,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="3"/>
@@ -2656,11 +2624,11 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="2">
@@ -2668,18 +2636,18 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.55</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>28.875</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="6">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="7">
         <f t="shared" si="9"/>
         <v>44840</v>
       </c>
@@ -2688,8 +2656,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="3"/>
@@ -2701,42 +2668,42 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="10"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="12">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>6088</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="13">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="13">
         <f>MAX(H3,H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="13">
-        <f>MAX(K3,K38)</f>
-        <v>298.875</v>
+      <c r="C43" s="14">
+        <f>MAX(E3,E38)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -153,7 +153,7 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
+    <t>Кузин</t>
   </si>
   <si>
     <t>Куропаткин 2</t>
@@ -175,9 +175,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0[$ ₽]"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="12.0"/>
@@ -235,16 +232,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -262,10 +256,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -531,7 +528,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -552,7 +549,7 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -595,10 +592,10 @@
         <f t="shared" ref="E3:E38" si="1">C3*D3</f>
         <v>77</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>44813.0</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>44805.0</v>
       </c>
       <c r="H3" s="2">
@@ -609,11 +606,11 @@
         <v>10.0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J38" si="3">I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K38" si="4">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
         <v>77</v>
       </c>
       <c r="L3" s="2"/>
@@ -633,31 +630,31 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
-        <f t="shared" ref="A4:A38" si="5">A3+1</f>
+      <c r="A4" s="7">
+        <f t="shared" ref="A4:A38" si="4">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C38" si="6">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D34" si="7">D3</f>
+        <f t="shared" ref="D4:D34" si="6">D3</f>
         <v>1.1</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>76.45</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F38" si="8">F3</f>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F38" si="7">F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G38" si="9">G3+1</f>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G38" si="8">G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
@@ -665,14 +662,15 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>10.0</v>
+        <f t="shared" ref="I4:I38" si="9">I3</f>
+        <v>10</v>
       </c>
       <c r="J4" s="2">
+        <f t="shared" ref="J4:J38" si="10">I4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="4"/>
         <v>76.45</v>
       </c>
       <c r="L4" s="2"/>
@@ -692,31 +690,31 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
-        <f t="shared" si="5"/>
+      <c r="A5" s="7">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="6"/>
-        <v>69</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>75.9</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="9"/>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -724,14 +722,15 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J5" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="4"/>
         <v>75.9</v>
       </c>
       <c r="L5" s="2"/>
@@ -751,31 +750,31 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
-        <f t="shared" si="5"/>
+      <c r="A6" s="7">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
+        <f t="shared" si="5"/>
+        <v>68.5</v>
+      </c>
+      <c r="D6" s="2">
         <f t="shared" si="6"/>
-        <v>68.5</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>75.35</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="9"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -783,14 +782,15 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J6" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="4"/>
         <v>75.35</v>
       </c>
       <c r="L6" s="2"/>
@@ -810,31 +810,31 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
-        <f t="shared" si="5"/>
+      <c r="A7" s="7">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="2">
         <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>74.8</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="9"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -842,14 +842,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="4"/>
         <v>74.8</v>
       </c>
       <c r="L7" s="2"/>
@@ -869,31 +870,31 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8">
-        <f t="shared" si="5"/>
+      <c r="A8" s="7">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+      <c r="D8" s="2">
         <f t="shared" si="6"/>
-        <v>67.5</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>74.25</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="9"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -901,14 +902,15 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J8" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
       <c r="L8" s="2"/>
@@ -928,31 +930,31 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8">
-        <f t="shared" si="5"/>
+      <c r="A9" s="7">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>73.7</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="9"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -960,14 +962,15 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J9" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="4"/>
         <v>73.7</v>
       </c>
       <c r="L9" s="2"/>
@@ -987,31 +990,31 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8">
-        <f t="shared" si="5"/>
+      <c r="A10" s="7">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
+        <f t="shared" si="5"/>
+        <v>66.5</v>
+      </c>
+      <c r="D10" s="2">
         <f t="shared" si="6"/>
-        <v>66.5</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>73.15</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="9"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -1019,14 +1022,15 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J10" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="4"/>
         <v>73.15</v>
       </c>
       <c r="L10" s="2"/>
@@ -1046,31 +1050,31 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8">
-        <f t="shared" si="5"/>
+      <c r="A11" s="7">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="D11" s="2">
         <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>72.6</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="9"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -1078,14 +1082,15 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J11" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="4"/>
         <v>72.6</v>
       </c>
       <c r="L11" s="2"/>
@@ -1105,31 +1110,31 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8">
-        <f t="shared" si="5"/>
+      <c r="A12" s="7">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2">
+        <f t="shared" si="5"/>
+        <v>65.5</v>
+      </c>
+      <c r="D12" s="2">
         <f t="shared" si="6"/>
-        <v>65.5</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>72.05</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="9"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -1137,14 +1142,15 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J12" s="2">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="4"/>
         <v>82.05</v>
       </c>
       <c r="L12" s="2"/>
@@ -1164,31 +1170,31 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8">
-        <f t="shared" si="5"/>
+      <c r="A13" s="7">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="D13" s="2">
         <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="9"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1196,14 +1202,15 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J13" s="2">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="4"/>
         <v>91.5</v>
       </c>
       <c r="L13" s="2"/>
@@ -1223,31 +1230,31 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8">
-        <f t="shared" si="5"/>
+      <c r="A14" s="7">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
+        <f t="shared" si="5"/>
+        <v>64.5</v>
+      </c>
+      <c r="D14" s="2">
         <f t="shared" si="6"/>
-        <v>64.5</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>70.95</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="9"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1255,14 +1262,15 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J14" s="2">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="4"/>
         <v>100.95</v>
       </c>
       <c r="L14" s="2"/>
@@ -1282,31 +1290,31 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8">
-        <f t="shared" si="5"/>
+      <c r="A15" s="7">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D15" s="2">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>70.4</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="9"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1314,14 +1322,15 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J15" s="2">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="4"/>
         <v>110.4</v>
       </c>
       <c r="L15" s="2"/>
@@ -1341,31 +1350,31 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8">
-        <f t="shared" si="5"/>
+      <c r="A16" s="7">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2">
+        <f t="shared" si="5"/>
+        <v>63.5</v>
+      </c>
+      <c r="D16" s="2">
         <f t="shared" si="6"/>
-        <v>63.5</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>69.85</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="9"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1373,14 +1382,15 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J16" s="2">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="4"/>
         <v>119.85</v>
       </c>
       <c r="L16" s="2"/>
@@ -1400,31 +1410,31 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8">
-        <f t="shared" si="5"/>
+      <c r="A17" s="7">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="D17" s="2">
         <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>69.3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="9"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1432,14 +1442,15 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J17" s="2">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="4"/>
         <v>129.3</v>
       </c>
       <c r="L17" s="2"/>
@@ -1459,31 +1470,31 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8">
-        <f t="shared" si="5"/>
+      <c r="A18" s="7">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2">
+        <f t="shared" si="5"/>
+        <v>62.5</v>
+      </c>
+      <c r="D18" s="2">
         <f t="shared" si="6"/>
-        <v>62.5</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>68.75</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="9"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1491,14 +1502,15 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J18" s="2">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="K18" s="2">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="4"/>
         <v>138.75</v>
       </c>
       <c r="L18" s="2"/>
@@ -1518,31 +1530,31 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8">
-        <f t="shared" si="5"/>
+      <c r="A19" s="7">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="D19" s="2">
         <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>68.2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="9"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1550,14 +1562,15 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J19" s="2">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="K19" s="2">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="4"/>
         <v>148.2</v>
       </c>
       <c r="L19" s="2"/>
@@ -1577,31 +1590,31 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8">
-        <f t="shared" si="5"/>
+      <c r="A20" s="7">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2">
+        <f t="shared" si="5"/>
+        <v>61.5</v>
+      </c>
+      <c r="D20" s="2">
         <f t="shared" si="6"/>
-        <v>61.5</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>67.65</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="9"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1609,14 +1622,15 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J20" s="2">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="K20" s="2">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="4"/>
         <v>157.65</v>
       </c>
       <c r="L20" s="2"/>
@@ -1636,31 +1650,31 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8">
-        <f t="shared" si="5"/>
+      <c r="A21" s="7">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="D21" s="2">
         <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>67.1</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="9"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1668,14 +1682,15 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J21" s="2">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="K21" s="2">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="4"/>
         <v>167.1</v>
       </c>
       <c r="L21" s="2"/>
@@ -1695,31 +1710,31 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8">
-        <f t="shared" si="5"/>
+      <c r="A22" s="7">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="2">
+        <f t="shared" si="5"/>
+        <v>60.5</v>
+      </c>
+      <c r="D22" s="2">
         <f t="shared" si="6"/>
-        <v>60.5</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>66.55</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="9"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1727,14 +1742,15 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J22" s="2">
+        <f t="shared" si="10"/>
+        <v>110</v>
+      </c>
+      <c r="K22" s="2">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="4"/>
         <v>176.55</v>
       </c>
       <c r="L22" s="2"/>
@@ -1754,31 +1770,31 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8">
-        <f t="shared" si="5"/>
+      <c r="A23" s="7">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="2">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="D23" s="2">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="9"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1786,14 +1802,15 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J23" s="2">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="4"/>
         <v>186</v>
       </c>
       <c r="L23" s="2"/>
@@ -1813,31 +1830,31 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8">
-        <f t="shared" si="5"/>
+      <c r="A24" s="7">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2">
+        <f t="shared" si="5"/>
+        <v>59.5</v>
+      </c>
+      <c r="D24" s="2">
         <f t="shared" si="6"/>
-        <v>59.5</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>65.45</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="9"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1845,14 +1862,15 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J24" s="2">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+      <c r="K24" s="2">
         <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="4"/>
         <v>195.45</v>
       </c>
       <c r="L24" s="2"/>
@@ -1872,31 +1890,31 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8">
-        <f t="shared" si="5"/>
+      <c r="A25" s="7">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="2">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="D25" s="2">
         <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>64.9</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="9"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1904,14 +1922,15 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J25" s="2">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="K25" s="2">
         <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="4"/>
         <v>204.9</v>
       </c>
       <c r="L25" s="2"/>
@@ -1931,31 +1950,31 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8">
-        <f t="shared" si="5"/>
+      <c r="A26" s="7">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="2">
+        <f t="shared" si="5"/>
+        <v>58.5</v>
+      </c>
+      <c r="D26" s="2">
         <f t="shared" si="6"/>
-        <v>58.5</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>64.35</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="9"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1963,14 +1982,15 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J26" s="2">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="K26" s="2">
         <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="4"/>
         <v>214.35</v>
       </c>
       <c r="L26" s="2"/>
@@ -1990,31 +2010,31 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8">
-        <f t="shared" si="5"/>
+      <c r="A27" s="7">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D27" s="2">
         <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>63.8</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="9"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -2022,14 +2042,15 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J27" s="2">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="K27" s="2">
         <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="4"/>
         <v>223.8</v>
       </c>
       <c r="L27" s="2"/>
@@ -2049,31 +2070,31 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8">
-        <f t="shared" si="5"/>
+      <c r="A28" s="7">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="2">
+        <f t="shared" si="5"/>
+        <v>57.5</v>
+      </c>
+      <c r="D28" s="2">
         <f t="shared" si="6"/>
-        <v>57.5</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>63.25</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="9"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -2081,14 +2102,15 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J28" s="2">
+        <f t="shared" si="10"/>
+        <v>170</v>
+      </c>
+      <c r="K28" s="2">
         <f t="shared" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="4"/>
         <v>233.25</v>
       </c>
       <c r="L28" s="2"/>
@@ -2108,31 +2130,31 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="8">
-        <f t="shared" si="5"/>
+      <c r="A29" s="7">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="2">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="D29" s="2">
         <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>62.7</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="7">
-        <f t="shared" si="9"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -2140,14 +2162,15 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J29" s="2">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="K29" s="2">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="4"/>
         <v>242.7</v>
       </c>
       <c r="L29" s="2"/>
@@ -2167,31 +2190,31 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="8">
-        <f t="shared" si="5"/>
+      <c r="A30" s="7">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2">
+        <f t="shared" si="5"/>
+        <v>56.5</v>
+      </c>
+      <c r="D30" s="2">
         <f t="shared" si="6"/>
-        <v>56.5</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>62.15</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="9"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -2199,14 +2222,15 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J30" s="2">
+        <f t="shared" si="10"/>
+        <v>190</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="3"/>
-        <v>190</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="4"/>
         <v>252.15</v>
       </c>
       <c r="L30" s="2"/>
@@ -2226,31 +2250,31 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="8">
-        <f t="shared" si="5"/>
+      <c r="A31" s="7">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="2">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="D31" s="2">
         <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>61.6</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" si="9"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -2258,14 +2282,15 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J31" s="2">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="K31" s="2">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="4"/>
         <v>261.6</v>
       </c>
       <c r="L31" s="2"/>
@@ -2285,31 +2310,31 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="8">
-        <f t="shared" si="5"/>
+      <c r="A32" s="7">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2">
+        <f t="shared" si="5"/>
+        <v>55.5</v>
+      </c>
+      <c r="D32" s="2">
         <f t="shared" si="6"/>
-        <v>55.5</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>61.05</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="7">
-        <f t="shared" si="9"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -2317,14 +2342,15 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J32" s="2">
+        <f t="shared" si="10"/>
+        <v>210</v>
+      </c>
+      <c r="K32" s="2">
         <f t="shared" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="K32" s="2">
-        <f t="shared" si="4"/>
         <v>271.05</v>
       </c>
       <c r="L32" s="2"/>
@@ -2344,31 +2370,31 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8">
-        <f t="shared" si="5"/>
+      <c r="A33" s="7">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="D33" s="2">
         <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>60.5</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="7">
-        <f t="shared" si="9"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -2376,14 +2402,15 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J33" s="2">
+        <f t="shared" si="10"/>
+        <v>220</v>
+      </c>
+      <c r="K33" s="2">
         <f t="shared" si="3"/>
-        <v>220</v>
-      </c>
-      <c r="K33" s="2">
-        <f t="shared" si="4"/>
         <v>280.5</v>
       </c>
       <c r="L33" s="2"/>
@@ -2403,31 +2430,31 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="8">
-        <f t="shared" si="5"/>
+      <c r="A34" s="7">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2">
+        <f t="shared" si="5"/>
+        <v>54.5</v>
+      </c>
+      <c r="D34" s="2">
         <f t="shared" si="6"/>
-        <v>54.5</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>59.95</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="7">
-        <f t="shared" si="9"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -2435,14 +2462,15 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J34" s="2">
+        <f t="shared" si="10"/>
+        <v>230</v>
+      </c>
+      <c r="K34" s="2">
         <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" si="4"/>
         <v>289.95</v>
       </c>
       <c r="L34" s="2"/>
@@ -2462,31 +2490,31 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="8">
-        <f t="shared" si="5"/>
+      <c r="A35" s="7">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>A1*1.1/2</f>
+        <f>D3/2</f>
         <v>0.55</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
         <v>29.7</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="7">
-        <f t="shared" si="9"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -2494,14 +2522,15 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J35" s="2">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="K35" s="2">
         <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="4"/>
         <v>269.7</v>
       </c>
       <c r="L35" s="2"/>
@@ -2521,31 +2550,31 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="8">
-        <f t="shared" si="5"/>
+      <c r="A36" s="7">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="10">D35</f>
+        <f>D3/2</f>
         <v>0.55</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>29.425</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="7">
-        <f t="shared" si="9"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -2553,14 +2582,15 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J36" s="2">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="K36" s="2">
         <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="K36" s="2">
-        <f t="shared" si="4"/>
         <v>279.425</v>
       </c>
       <c r="L36" s="2"/>
@@ -2580,31 +2610,31 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="2">
-        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>0.55</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>29.15</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" si="9"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2612,43 +2642,44 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J37" s="2">
+        <f t="shared" si="10"/>
+        <v>260</v>
+      </c>
+      <c r="K37" s="2">
         <f t="shared" si="3"/>
-        <v>260</v>
-      </c>
-      <c r="K37" s="2">
+        <v>289.15</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="7">
         <f t="shared" si="4"/>
-        <v>289.15</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="8">
-        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>0.55</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>28.875</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="6">
         <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="7">
-        <f t="shared" si="9"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2656,14 +2687,15 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <v>10.0</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J38" s="2">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="K38" s="2">
         <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-      <c r="K38" s="2">
-        <f t="shared" si="4"/>
         <v>298.875</v>
       </c>
     </row>
@@ -2671,7 +2703,7 @@
       <c r="C39" s="11"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="12">
@@ -2680,7 +2712,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="13">
@@ -2689,20 +2721,20 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="13">
-        <f>MAX(H3,H38)</f>
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="14">
-        <f>MAX(E3,E38)</f>
+        <f>MAX(E3:E38)</f>
         <v>77</v>
       </c>
     </row>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -51,10 +51,10 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t xml:space="preserve">Абделазиз </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Абдуллина </t>
+    <t>Абделазиз</t>
+  </si>
+  <si>
+    <t>Абдуллина</t>
   </si>
   <si>
     <t>Акмалов</t>
@@ -156,7 +156,7 @@
     <t>Кузин</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
+    <t>Куропаткин 1</t>
   </si>
   <si>
     <t>Общая сумма, руб.</t>
@@ -175,7 +175,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -193,19 +196,14 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF282C34"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <color theme="1"/>
@@ -227,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -243,7 +241,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -252,19 +253,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -578,7 +573,7 @@
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2">
@@ -592,10 +587,10 @@
         <f t="shared" ref="E3:E38" si="1">C3*D3</f>
         <v>77</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>44813.0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>44805.0</v>
       </c>
       <c r="H3" s="2">
@@ -605,12 +600,12 @@
       <c r="I3" s="2">
         <v>10.0</v>
       </c>
-      <c r="J3" s="2">
-        <f>H3*I3</f>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J38" si="3">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="4">E3+J3</f>
         <v>77</v>
       </c>
       <c r="L3" s="2"/>
@@ -630,31 +625,31 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7">
-        <f t="shared" ref="A4:A38" si="4">A3+1</f>
+      <c r="A4" s="8">
+        <f t="shared" ref="A4:A38" si="5">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C38" si="5">C3-0.5</f>
+        <f t="shared" ref="C4:C38" si="6">C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D34" si="6">D3</f>
+        <f t="shared" ref="D4:D34" si="7">D3</f>
         <v>1.1</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
         <v>76.45</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" ref="F4:F38" si="7">F3</f>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F38" si="8">F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="6">
-        <f t="shared" ref="G4:G38" si="8">G3+1</f>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:G38" si="9">G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
@@ -662,15 +657,15 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I38" si="9">I3</f>
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="10">I4*H4</f>
+        <f t="shared" ref="I4:I38" si="10">I3</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76.45</v>
       </c>
       <c r="L4" s="2"/>
@@ -690,31 +685,31 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7">
-        <f t="shared" si="4"/>
+      <c r="A5" s="8">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>75.9</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="7"/>
+      <c r="F5" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" si="8"/>
+      <c r="G5" s="7">
+        <f t="shared" si="9"/>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -722,15 +717,15 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75.9</v>
       </c>
       <c r="L5" s="2"/>
@@ -750,31 +745,31 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7">
-        <f t="shared" si="4"/>
+      <c r="A6" s="8">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>75.35</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="7"/>
+      <c r="F6" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" si="8"/>
+      <c r="G6" s="7">
+        <f t="shared" si="9"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -782,15 +777,15 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75.35</v>
       </c>
       <c r="L6" s="2"/>
@@ -810,31 +805,31 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7">
-        <f t="shared" si="4"/>
+      <c r="A7" s="8">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>74.8</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="7"/>
+      <c r="F7" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G7" s="6">
-        <f t="shared" si="8"/>
+      <c r="G7" s="7">
+        <f t="shared" si="9"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -842,15 +837,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74.8</v>
       </c>
       <c r="L7" s="2"/>
@@ -870,31 +865,31 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7">
-        <f t="shared" si="4"/>
+      <c r="A8" s="8">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>74.25</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="7"/>
+      <c r="F8" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" si="8"/>
+      <c r="G8" s="7">
+        <f t="shared" si="9"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -902,15 +897,15 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
       <c r="L8" s="2"/>
@@ -930,31 +925,31 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7">
-        <f t="shared" si="4"/>
+      <c r="A9" s="8">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>73.7</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="7"/>
+      <c r="F9" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G9" s="6">
-        <f t="shared" si="8"/>
+      <c r="G9" s="7">
+        <f t="shared" si="9"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -962,15 +957,15 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73.7</v>
       </c>
       <c r="L9" s="2"/>
@@ -990,31 +985,31 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7">
-        <f t="shared" si="4"/>
+      <c r="A10" s="8">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>73.15</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="7"/>
+      <c r="F10" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G10" s="6">
-        <f t="shared" si="8"/>
+      <c r="G10" s="7">
+        <f t="shared" si="9"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -1022,15 +1017,15 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73.15</v>
       </c>
       <c r="L10" s="2"/>
@@ -1050,31 +1045,31 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7">
-        <f t="shared" si="4"/>
+      <c r="A11" s="8">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>72.6</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="7"/>
+      <c r="F11" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G11" s="6">
-        <f t="shared" si="8"/>
+      <c r="G11" s="7">
+        <f t="shared" si="9"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -1082,15 +1077,15 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72.6</v>
       </c>
       <c r="L11" s="2"/>
@@ -1110,31 +1105,31 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="8">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>72.05</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="7"/>
+      <c r="F12" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G12" s="6">
-        <f t="shared" si="8"/>
+      <c r="G12" s="7">
+        <f t="shared" si="9"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -1142,15 +1137,15 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
+      <c r="J12" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="K12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82.05</v>
       </c>
       <c r="L12" s="2"/>
@@ -1170,31 +1165,31 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7">
-        <f t="shared" si="4"/>
+      <c r="A13" s="8">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="7"/>
+      <c r="F13" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" si="8"/>
+      <c r="G13" s="7">
+        <f t="shared" si="9"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1202,15 +1197,15 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.5</v>
       </c>
       <c r="L13" s="2"/>
@@ -1230,31 +1225,31 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7">
-        <f t="shared" si="4"/>
+      <c r="A14" s="8">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>70.95</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="7"/>
+      <c r="F14" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G14" s="6">
-        <f t="shared" si="8"/>
+      <c r="G14" s="7">
+        <f t="shared" si="9"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1262,15 +1257,15 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100.95</v>
       </c>
       <c r="L14" s="2"/>
@@ -1290,31 +1285,31 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7">
-        <f t="shared" si="4"/>
+      <c r="A15" s="8">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>70.4</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="7"/>
+      <c r="F15" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" si="8"/>
+      <c r="G15" s="7">
+        <f t="shared" si="9"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1322,15 +1317,15 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110.4</v>
       </c>
       <c r="L15" s="2"/>
@@ -1350,31 +1345,31 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7">
-        <f t="shared" si="4"/>
+      <c r="A16" s="8">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>69.85</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="7"/>
+      <c r="F16" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G16" s="6">
-        <f t="shared" si="8"/>
+      <c r="G16" s="7">
+        <f t="shared" si="9"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1382,15 +1377,15 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119.85</v>
       </c>
       <c r="L16" s="2"/>
@@ -1410,31 +1405,31 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="7">
-        <f t="shared" si="4"/>
+      <c r="A17" s="8">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>69.3</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="7"/>
+      <c r="F17" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" si="8"/>
+      <c r="G17" s="7">
+        <f t="shared" si="9"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1442,15 +1437,15 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129.3</v>
       </c>
       <c r="L17" s="2"/>
@@ -1470,31 +1465,31 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7">
-        <f t="shared" si="4"/>
+      <c r="A18" s="8">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>68.75</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="7"/>
+      <c r="F18" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" si="8"/>
+      <c r="G18" s="7">
+        <f t="shared" si="9"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1502,15 +1497,15 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>138.75</v>
       </c>
       <c r="L18" s="2"/>
@@ -1530,31 +1525,31 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="7">
-        <f t="shared" si="4"/>
+      <c r="A19" s="8">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>68.2</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="7"/>
+      <c r="F19" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="8"/>
+      <c r="G19" s="7">
+        <f t="shared" si="9"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1562,15 +1557,15 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>148.2</v>
       </c>
       <c r="L19" s="2"/>
@@ -1590,31 +1585,31 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="7">
-        <f t="shared" si="4"/>
+      <c r="A20" s="8">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>67.65</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="7"/>
+      <c r="F20" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G20" s="6">
-        <f t="shared" si="8"/>
+      <c r="G20" s="7">
+        <f t="shared" si="9"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1622,15 +1617,15 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157.65</v>
       </c>
       <c r="L20" s="2"/>
@@ -1650,31 +1645,31 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7">
-        <f t="shared" si="4"/>
+      <c r="A21" s="8">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>67.1</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="7"/>
+      <c r="F21" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G21" s="6">
-        <f t="shared" si="8"/>
+      <c r="G21" s="7">
+        <f t="shared" si="9"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1682,15 +1677,15 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.1</v>
       </c>
       <c r="L21" s="2"/>
@@ -1710,31 +1705,31 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="7">
-        <f t="shared" si="4"/>
+      <c r="A22" s="8">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>66.55</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="7"/>
+      <c r="F22" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="8"/>
+      <c r="G22" s="7">
+        <f t="shared" si="9"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1742,15 +1737,15 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>176.55</v>
       </c>
       <c r="L22" s="2"/>
@@ -1770,31 +1765,31 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="7">
-        <f t="shared" si="4"/>
+      <c r="A23" s="8">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="7"/>
+      <c r="F23" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="8"/>
+      <c r="G23" s="7">
+        <f t="shared" si="9"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1802,15 +1797,15 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>186</v>
       </c>
       <c r="L23" s="2"/>
@@ -1830,31 +1825,31 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="7">
-        <f t="shared" si="4"/>
+      <c r="A24" s="8">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>65.45</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="7"/>
+      <c r="F24" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G24" s="6">
-        <f t="shared" si="8"/>
+      <c r="G24" s="7">
+        <f t="shared" si="9"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1862,15 +1857,15 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>195.45</v>
       </c>
       <c r="L24" s="2"/>
@@ -1890,31 +1885,31 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7">
-        <f t="shared" si="4"/>
+      <c r="A25" s="8">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>64.9</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="7"/>
+      <c r="F25" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G25" s="6">
-        <f t="shared" si="8"/>
+      <c r="G25" s="7">
+        <f t="shared" si="9"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1922,15 +1917,15 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>204.9</v>
       </c>
       <c r="L25" s="2"/>
@@ -1950,31 +1945,31 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7">
-        <f t="shared" si="4"/>
+      <c r="A26" s="8">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>64.35</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="7"/>
+      <c r="F26" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="8"/>
+      <c r="G26" s="7">
+        <f t="shared" si="9"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1982,15 +1977,15 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>214.35</v>
       </c>
       <c r="L26" s="2"/>
@@ -2010,31 +2005,31 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7">
-        <f t="shared" si="4"/>
+      <c r="A27" s="8">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>63.8</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="7"/>
+      <c r="F27" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G27" s="6">
-        <f t="shared" si="8"/>
+      <c r="G27" s="7">
+        <f t="shared" si="9"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -2042,15 +2037,15 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>223.8</v>
       </c>
       <c r="L27" s="2"/>
@@ -2070,31 +2065,31 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7">
-        <f t="shared" si="4"/>
+      <c r="A28" s="8">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>63.25</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="7"/>
+      <c r="F28" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="8"/>
+      <c r="G28" s="7">
+        <f t="shared" si="9"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -2102,15 +2097,15 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>233.25</v>
       </c>
       <c r="L28" s="2"/>
@@ -2130,31 +2125,31 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7">
-        <f t="shared" si="4"/>
+      <c r="A29" s="8">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>62.7</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" si="7"/>
+      <c r="F29" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="8"/>
+      <c r="G29" s="7">
+        <f t="shared" si="9"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -2162,15 +2157,15 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>242.7</v>
       </c>
       <c r="L29" s="2"/>
@@ -2190,31 +2185,31 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7">
-        <f t="shared" si="4"/>
+      <c r="A30" s="8">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>62.15</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="7"/>
+      <c r="F30" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="8"/>
+      <c r="G30" s="7">
+        <f t="shared" si="9"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -2222,15 +2217,15 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>252.15</v>
       </c>
       <c r="L30" s="2"/>
@@ -2250,31 +2245,31 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7">
-        <f t="shared" si="4"/>
+      <c r="A31" s="8">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>61.6</v>
       </c>
-      <c r="F31" s="5">
-        <f t="shared" si="7"/>
+      <c r="F31" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="8"/>
+      <c r="G31" s="7">
+        <f t="shared" si="9"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -2282,15 +2277,15 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>261.6</v>
       </c>
       <c r="L31" s="2"/>
@@ -2310,31 +2305,31 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7">
-        <f t="shared" si="4"/>
+      <c r="A32" s="8">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>61.05</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" si="7"/>
+      <c r="F32" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="8"/>
+      <c r="G32" s="7">
+        <f t="shared" si="9"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -2342,15 +2337,15 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>271.05</v>
       </c>
       <c r="L32" s="2"/>
@@ -2370,31 +2365,31 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7">
-        <f t="shared" si="4"/>
+      <c r="A33" s="8">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>60.5</v>
       </c>
-      <c r="F33" s="5">
-        <f t="shared" si="7"/>
+      <c r="F33" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="8"/>
+      <c r="G33" s="7">
+        <f t="shared" si="9"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -2402,15 +2397,15 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>280.5</v>
       </c>
       <c r="L33" s="2"/>
@@ -2430,31 +2425,31 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7">
-        <f t="shared" si="4"/>
+      <c r="A34" s="8">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>59.95</v>
       </c>
-      <c r="F34" s="5">
-        <f t="shared" si="7"/>
+      <c r="F34" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="8"/>
+      <c r="G34" s="7">
+        <f t="shared" si="9"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -2462,15 +2457,15 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>289.95</v>
       </c>
       <c r="L34" s="2"/>
@@ -2490,15 +2485,15 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7">
-        <f t="shared" si="4"/>
+      <c r="A35" s="8">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -2509,12 +2504,12 @@
         <f t="shared" si="1"/>
         <v>29.7</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" si="7"/>
+      <c r="F35" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="8"/>
+      <c r="G35" s="7">
+        <f t="shared" si="9"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -2522,15 +2517,15 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>269.7</v>
       </c>
       <c r="L35" s="2"/>
@@ -2550,15 +2545,15 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7">
-        <f t="shared" si="4"/>
+      <c r="A36" s="8">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
@@ -2569,12 +2564,12 @@
         <f t="shared" si="1"/>
         <v>29.425</v>
       </c>
-      <c r="F36" s="5">
-        <f t="shared" si="7"/>
+      <c r="F36" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="8"/>
+      <c r="G36" s="7">
+        <f t="shared" si="9"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -2582,15 +2577,15 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>279.425</v>
       </c>
       <c r="L36" s="2"/>
@@ -2610,15 +2605,15 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7">
-        <f t="shared" si="4"/>
+      <c r="A37" s="8">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
@@ -2629,12 +2624,12 @@
         <f t="shared" si="1"/>
         <v>29.15</v>
       </c>
-      <c r="F37" s="5">
-        <f t="shared" si="7"/>
+      <c r="F37" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="8"/>
+      <c r="G37" s="7">
+        <f t="shared" si="9"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2642,28 +2637,28 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>289.15</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="7">
-        <f t="shared" si="4"/>
+      <c r="A38" s="8">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
@@ -2674,12 +2669,12 @@
         <f t="shared" si="1"/>
         <v>28.875</v>
       </c>
-      <c r="F38" s="5">
-        <f t="shared" si="7"/>
+      <c r="F38" s="6">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="8"/>
+      <c r="G38" s="7">
+        <f t="shared" si="9"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2687,53 +2682,53 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="2">
         <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>298.875</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="11"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>6088</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="13">
         <f>MAX(E3:E38)</f>
         <v>77</v>
       </c>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -175,9 +175,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="6">
     <font>
       <sz val="12.0"/>
@@ -259,7 +256,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2698,7 +2695,7 @@
       <c r="C39" s="10"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="11">
@@ -2707,7 +2704,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="12">
@@ -2716,7 +2713,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="12">
@@ -2725,12 +2722,12 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="13">
-        <f>MAX(E3:E38)</f>
-        <v>77</v>
+        <f>MAX(K3:K38)</f>
+        <v>298.875</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1"/>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ИТ\Лаба 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC73D480-C268-42DC-8874-DC725E937FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951E59AF-C77B-4B99-B5A8-5B2BFC5798A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,9 +36,6 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф</t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -113,9 +102,6 @@
     <t>Коковкина</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Куропаткин 1</t>
   </si>
   <si>
@@ -170,9 +156,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Сумма, руб./кв.м.</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -186,6 +169,15 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -209,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -217,142 +209,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,114 +547,122 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <f>$A$1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <f>C3*D3</f>
         <v>77</v>
       </c>
-      <c r="F3" s="6">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="3">
         <v>44805</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="2">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="5">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="4">
         <f>E3+J3</f>
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -810,20 +693,21 @@
         <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>76.45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
@@ -851,20 +735,21 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <f t="shared" si="4"/>
         <v>75.900000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
+        <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>9</v>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
@@ -892,20 +777,21 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <f t="shared" si="4"/>
         <v>75.350000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
@@ -933,20 +819,21 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <f t="shared" si="4"/>
         <v>74.800000000000011</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
@@ -974,20 +861,21 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <f t="shared" si="4"/>
         <v>74.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>12</v>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
@@ -1015,24 +903,25 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <f t="shared" si="4"/>
         <v>73.7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>13</v>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
+        <f>$A$1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E10" s="2">
@@ -1056,20 +945,21 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="5">
         <f t="shared" si="4"/>
         <v>73.150000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>14</v>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
@@ -1097,24 +987,25 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="5">
         <f t="shared" si="4"/>
         <v>36.300000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D38" si="6">($A$1*1.1)/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E12" s="2">
@@ -1138,24 +1029,25 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <f t="shared" si="4"/>
         <v>46.025000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>16</v>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D12:D38" si="7">($A$1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="2">
@@ -1179,24 +1071,25 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <f t="shared" si="4"/>
         <v>55.75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>17</v>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E14" s="2">
@@ -1220,24 +1113,25 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="5">
         <f t="shared" si="4"/>
         <v>65.474999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>18</v>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E15" s="2">
@@ -1261,24 +1155,25 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="5">
         <f t="shared" si="4"/>
         <v>75.2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>19</v>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E16" s="2">
@@ -1302,24 +1197,25 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <f t="shared" si="4"/>
         <v>84.925000000000011</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>20</v>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E17" s="2">
@@ -1343,24 +1239,25 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
         <v>94.65</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>21</v>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E18" s="2">
@@ -1384,24 +1281,25 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="5">
         <f t="shared" si="4"/>
         <v>104.375</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>22</v>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E19" s="2">
@@ -1425,24 +1323,25 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="5">
         <f t="shared" si="4"/>
         <v>114.1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>23</v>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <f>C19-0.5</f>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E20" s="2">
@@ -1466,24 +1365,25 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="5">
         <f t="shared" si="4"/>
         <v>123.825</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>24</v>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E21" s="2">
@@ -1507,24 +1407,25 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="5">
         <f t="shared" si="4"/>
         <v>133.55000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>25</v>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E22" s="2">
@@ -1548,24 +1449,25 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="5">
         <f t="shared" si="4"/>
         <v>143.27500000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>27</v>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E23" s="2">
@@ -1589,24 +1491,25 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="5">
         <f t="shared" si="4"/>
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>28</v>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E24" s="2">
@@ -1630,24 +1533,25 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="5">
         <f t="shared" si="4"/>
         <v>162.72499999999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>29</v>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E25" s="2">
@@ -1671,24 +1575,25 @@
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>172.45</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>30</v>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E26" s="2">
@@ -1712,24 +1617,25 @@
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="5">
         <f t="shared" si="4"/>
         <v>182.17500000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>31</v>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E27" s="2">
@@ -1753,24 +1659,25 @@
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="5">
         <f t="shared" si="4"/>
         <v>191.9</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>32</v>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E28" s="2">
@@ -1794,24 +1701,25 @@
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="5">
         <f t="shared" si="4"/>
         <v>201.625</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>33</v>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E29" s="2">
@@ -1835,24 +1743,25 @@
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="5">
         <f t="shared" si="4"/>
         <v>211.35</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>34</v>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E30" s="2">
@@ -1876,24 +1785,25 @@
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="5">
         <f t="shared" si="4"/>
         <v>221.07499999999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>35</v>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E31" s="2">
@@ -1917,24 +1827,25 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="5">
         <f t="shared" si="4"/>
         <v>230.8</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>36</v>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E32" s="2">
@@ -1958,24 +1869,25 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="5">
         <f t="shared" si="4"/>
         <v>240.52500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>37</v>
+      <c r="B33" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E33" s="2">
@@ -1999,24 +1911,25 @@
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="5">
         <f t="shared" si="4"/>
         <v>250.25</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>38</v>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E34" s="2">
@@ -2040,24 +1953,25 @@
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="5">
         <f t="shared" si="4"/>
         <v>259.97500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>39</v>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E35" s="2">
@@ -2081,24 +1995,25 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="5">
         <f t="shared" si="4"/>
         <v>269.7</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>40</v>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E36" s="2">
@@ -2122,24 +2037,25 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="5">
         <f t="shared" si="4"/>
         <v>279.42500000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>41</v>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E37" s="2">
@@ -2163,28 +2079,29 @@
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="5">
         <f t="shared" si="4"/>
         <v>289.14999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>42</v>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="5"/>
+        <f>C37-0.5</f>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="6"/>
+        <f>($A$1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
+        <f>C38*D38</f>
         <v>28.875000000000004</v>
       </c>
       <c r="F38" s="3">
@@ -2194,7 +2111,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
+        <f>IF(G38&lt;=F38,0,G38-F38)</f>
         <v>27</v>
       </c>
       <c r="I38" s="2">
@@ -2204,47 +2121,95 @@
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="5">
         <f t="shared" si="4"/>
         <v>298.875</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="10">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="4">
         <f>SUM(K3:K38)</f>
         <v>5293.05</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="11">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="11">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="11">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="2">
         <f>MAX(E3:E38)</f>
         <v>77</v>
       </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951E59AF-C77B-4B99-B5A8-5B2BFC5798A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21A759D-687F-463B-A0F4-781489EEA3F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
@@ -159,18 +159,9 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Общая сумма "Итого"</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате</t>
-  </si>
-  <si>
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
@@ -178,6 +169,15 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма "Итого", руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
@@ -547,13 +547,13 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
@@ -592,10 +592,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -607,7 +607,7 @@
         <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>41</v>
@@ -627,7 +627,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f>$A$1*1.1</f>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E3" s="2">
@@ -669,11 +669,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D10" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E37" si="0">C4*D4</f>
         <v>76.45</v>
       </c>
       <c r="F4" s="3">
@@ -683,39 +683,39 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H37" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f>E4+J4</f>
         <v>76.45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A37" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C37" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="5">D4</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75.900000000000006</v>
       </c>
       <c r="F5" s="3">
@@ -725,18 +725,18 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K5:K37" si="6">E5+J5</f>
         <v>75.900000000000006</v>
       </c>
     </row>
@@ -749,15 +749,15 @@
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75.350000000000009</v>
       </c>
       <c r="F6" s="3">
@@ -767,39 +767,39 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>75.350000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>74.800000000000011</v>
       </c>
       <c r="F7" s="3">
@@ -809,39 +809,39 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>74.800000000000011</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>74.25</v>
       </c>
       <c r="F8" s="3">
@@ -851,39 +851,39 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>74.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>73.7</v>
       </c>
       <c r="F9" s="3">
@@ -893,39 +893,39 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>73.7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>73.150000000000006</v>
       </c>
       <c r="F10" s="3">
@@ -935,40 +935,40 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>73.150000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f>($A$1*1.1)/2</f>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>36.300000000000004</v>
+        <f t="shared" si="0"/>
+        <v>72.600000000000009</v>
       </c>
       <c r="F11" s="3">
         <v>44813</v>
@@ -977,40 +977,40 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="4"/>
-        <v>36.300000000000004</v>
+        <f t="shared" si="6"/>
+        <v>72.600000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f>($A$1*1.1)/2</f>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>36.025000000000006</v>
+        <f t="shared" si="0"/>
+        <v>72.050000000000011</v>
       </c>
       <c r="F12" s="3">
         <v>44813</v>
@@ -1019,40 +1019,40 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="3"/>
+        <f>I12*H12</f>
         <v>10</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="4"/>
-        <v>46.025000000000006</v>
+        <f>E12+J12</f>
+        <v>82.050000000000011</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D12:D38" si="7">($A$1*1.1)/2</f>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>35.75</v>
+        <f t="shared" si="0"/>
+        <v>71.5</v>
       </c>
       <c r="F13" s="3">
         <v>44813</v>
@@ -1061,40 +1061,40 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="2">
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="4"/>
-        <v>55.75</v>
+        <f t="shared" si="6"/>
+        <v>91.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>35.475000000000001</v>
+        <f t="shared" si="0"/>
+        <v>70.95</v>
       </c>
       <c r="F14" s="3">
         <v>44813</v>
@@ -1103,40 +1103,40 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="4"/>
-        <v>65.474999999999994</v>
+        <f t="shared" si="6"/>
+        <v>100.95</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>35.200000000000003</v>
+        <f t="shared" si="0"/>
+        <v>70.400000000000006</v>
       </c>
       <c r="F15" s="3">
         <v>44813</v>
@@ -1145,40 +1145,40 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="2">
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="4"/>
-        <v>75.2</v>
+        <f t="shared" si="6"/>
+        <v>110.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>34.925000000000004</v>
+        <f t="shared" si="0"/>
+        <v>69.850000000000009</v>
       </c>
       <c r="F16" s="3">
         <v>44813</v>
@@ -1187,40 +1187,40 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="2">
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="4"/>
-        <v>84.925000000000011</v>
+        <f t="shared" si="6"/>
+        <v>119.85000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>34.650000000000006</v>
+        <f t="shared" si="0"/>
+        <v>69.300000000000011</v>
       </c>
       <c r="F17" s="3">
         <v>44813</v>
@@ -1229,40 +1229,40 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="2">
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="4"/>
-        <v>94.65</v>
+        <f t="shared" si="6"/>
+        <v>129.30000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>34.375</v>
+        <f t="shared" si="0"/>
+        <v>68.75</v>
       </c>
       <c r="F18" s="3">
         <v>44813</v>
@@ -1271,40 +1271,40 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="2">
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="4"/>
-        <v>104.375</v>
+        <f t="shared" si="6"/>
+        <v>138.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>34.1</v>
+        <f t="shared" si="0"/>
+        <v>68.2</v>
       </c>
       <c r="F19" s="3">
         <v>44813</v>
@@ -1313,24 +1313,24 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="2">
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="4"/>
-        <v>114.1</v>
+        <f t="shared" si="6"/>
+        <v>148.19999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1341,12 +1341,12 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>33.825000000000003</v>
+        <f t="shared" si="0"/>
+        <v>67.650000000000006</v>
       </c>
       <c r="F20" s="3">
         <v>44813</v>
@@ -1355,40 +1355,40 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="2">
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="4"/>
-        <v>123.825</v>
+        <f t="shared" si="6"/>
+        <v>157.65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>33.550000000000004</v>
+        <f t="shared" si="0"/>
+        <v>67.100000000000009</v>
       </c>
       <c r="F21" s="3">
         <v>44813</v>
@@ -1397,40 +1397,40 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="2">
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="4"/>
-        <v>133.55000000000001</v>
+        <f t="shared" si="6"/>
+        <v>167.10000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>33.275000000000006</v>
+        <f t="shared" si="0"/>
+        <v>66.550000000000011</v>
       </c>
       <c r="F22" s="3">
         <v>44813</v>
@@ -1439,40 +1439,40 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="2">
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="4"/>
-        <v>143.27500000000001</v>
+        <f t="shared" si="6"/>
+        <v>176.55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f>C23*D23</f>
+        <v>66</v>
       </c>
       <c r="F23" s="3">
         <v>44813</v>
@@ -1481,40 +1481,40 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="2">
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="4"/>
-        <v>153</v>
+        <f t="shared" si="6"/>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>32.725000000000001</v>
+        <f t="shared" si="0"/>
+        <v>65.45</v>
       </c>
       <c r="F24" s="3">
         <v>44813</v>
@@ -1523,40 +1523,40 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="2">
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="4"/>
-        <v>162.72499999999999</v>
+        <f t="shared" si="6"/>
+        <v>195.45</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
-        <v>32.450000000000003</v>
+        <f t="shared" si="0"/>
+        <v>64.900000000000006</v>
       </c>
       <c r="F25" s="3">
         <v>44813</v>
@@ -1565,40 +1565,40 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="2">
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="4"/>
-        <v>172.45</v>
+        <f t="shared" si="6"/>
+        <v>204.9</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="1"/>
-        <v>32.175000000000004</v>
+        <f t="shared" si="0"/>
+        <v>64.350000000000009</v>
       </c>
       <c r="F26" s="3">
         <v>44813</v>
@@ -1607,40 +1607,40 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="2">
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="4"/>
-        <v>182.17500000000001</v>
+        <f t="shared" si="6"/>
+        <v>214.35000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="6"/>
+        <f>C26-0.5</f>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="1"/>
-        <v>31.900000000000002</v>
+        <f t="shared" si="0"/>
+        <v>63.800000000000004</v>
       </c>
       <c r="F27" s="3">
         <v>44813</v>
@@ -1649,40 +1649,40 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="2">
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="4"/>
-        <v>191.9</v>
+        <f t="shared" si="6"/>
+        <v>223.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="1"/>
-        <v>31.625000000000004</v>
+        <f t="shared" si="0"/>
+        <v>63.250000000000007</v>
       </c>
       <c r="F28" s="3">
         <v>44813</v>
@@ -1691,40 +1691,40 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="2">
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="4"/>
-        <v>201.625</v>
+        <f t="shared" si="6"/>
+        <v>233.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="1"/>
-        <v>31.35</v>
+        <f t="shared" si="0"/>
+        <v>62.7</v>
       </c>
       <c r="F29" s="3">
         <v>44813</v>
@@ -1733,40 +1733,40 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="2">
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="4"/>
-        <v>211.35</v>
+        <f t="shared" si="6"/>
+        <v>242.7</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="1"/>
-        <v>31.075000000000003</v>
+        <f t="shared" si="0"/>
+        <v>62.150000000000006</v>
       </c>
       <c r="F30" s="3">
         <v>44813</v>
@@ -1775,40 +1775,40 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="2">
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="4"/>
-        <v>221.07499999999999</v>
+        <f t="shared" si="6"/>
+        <v>252.15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="1"/>
-        <v>30.800000000000004</v>
+        <f t="shared" si="0"/>
+        <v>61.600000000000009</v>
       </c>
       <c r="F31" s="3">
         <v>44813</v>
@@ -1817,40 +1817,40 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="2">
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="4"/>
-        <v>230.8</v>
+        <f t="shared" si="6"/>
+        <v>261.60000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="1"/>
-        <v>30.525000000000002</v>
+        <f t="shared" si="0"/>
+        <v>61.050000000000004</v>
       </c>
       <c r="F32" s="3">
         <v>44813</v>
@@ -1859,40 +1859,40 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="2">
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="4"/>
-        <v>240.52500000000001</v>
+        <f t="shared" si="6"/>
+        <v>271.05</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="1"/>
-        <v>30.250000000000004</v>
+        <f t="shared" si="0"/>
+        <v>60.500000000000007</v>
       </c>
       <c r="F33" s="3">
         <v>44813</v>
@@ -1901,40 +1901,40 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="2">
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="4"/>
-        <v>250.25</v>
+        <f t="shared" si="6"/>
+        <v>280.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="7"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
-        <v>29.975000000000001</v>
+        <f t="shared" si="0"/>
+        <v>59.95</v>
       </c>
       <c r="F34" s="3">
         <v>44813</v>
@@ -1943,39 +1943,39 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="2">
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="4"/>
-        <v>259.97500000000002</v>
+        <f t="shared" si="6"/>
+        <v>289.95</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="7"/>
+        <f>D34/2</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29.700000000000003</v>
       </c>
       <c r="F35" s="3">
@@ -1985,39 +1985,39 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="2">
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>269.7</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D13:D38" si="7">D35</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29.425000000000001</v>
       </c>
       <c r="F36" s="3">
@@ -2027,31 +2027,31 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="2">
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>279.42500000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
@@ -2059,7 +2059,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29.150000000000002</v>
       </c>
       <c r="F37" s="3">
@@ -2069,24 +2069,24 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="2">
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>289.14999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="5"/>
+        <f>A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2097,7 +2097,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f>($A$1*1.1)/2</f>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E38" s="2">
@@ -2118,11 +2118,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="4"/>
+        <f>E38+J38</f>
         <v>298.875</v>
       </c>
     </row>
@@ -2142,11 +2142,11 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4">
         <f>SUM(K3:K38)</f>
-        <v>5293.05</v>
+        <v>6088.35</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2160,7 +2160,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2178,7 +2178,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2196,7 +2196,7 @@
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21A759D-687F-463B-A0F4-781489EEA3F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C53E42-FAC0-4F05-8142-1A84EFA36278}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f>D3</f>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E4" s="2">
@@ -711,7 +711,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D34" si="5">D4</f>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E5" s="2">
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ref="K5:K37" si="6">E5+J5</f>
+        <f t="shared" ref="K5:K37" si="5">E5+J5</f>
         <v>75.900000000000006</v>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" s="2">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>75.350000000000009</v>
       </c>
     </row>
@@ -795,7 +795,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E7" s="2">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>74.800000000000011</v>
       </c>
     </row>
@@ -837,7 +837,7 @@
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E8" s="2">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>74.25</v>
       </c>
     </row>
@@ -879,7 +879,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E9" s="2">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>73.7</v>
       </c>
     </row>
@@ -921,7 +921,7 @@
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E10" s="2">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>73.150000000000006</v>
       </c>
     </row>
@@ -963,7 +963,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E11" s="2">
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>72.600000000000009</v>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E12" s="2">
@@ -1047,7 +1047,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E13" s="2">
@@ -1072,7 +1072,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>91.5</v>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E14" s="2">
@@ -1114,7 +1114,7 @@
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>100.95</v>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="2">
@@ -1156,7 +1156,7 @@
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>110.4</v>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E16" s="2">
@@ -1198,7 +1198,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>119.85000000000001</v>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E17" s="2">
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>129.30000000000001</v>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E18" s="2">
@@ -1282,7 +1282,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>138.75</v>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E19" s="2">
@@ -1324,7 +1324,7 @@
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>148.19999999999999</v>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E20" s="2">
@@ -1366,7 +1366,7 @@
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>157.65</v>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E21" s="2">
@@ -1408,7 +1408,7 @@
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>167.10000000000002</v>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E22" s="2">
@@ -1450,7 +1450,7 @@
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>176.55</v>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E23" s="2">
@@ -1492,7 +1492,7 @@
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E24" s="2">
@@ -1534,7 +1534,7 @@
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>195.45</v>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E25" s="2">
@@ -1576,7 +1576,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>204.9</v>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E26" s="2">
@@ -1618,7 +1618,7 @@
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>214.35000000000002</v>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E27" s="2">
@@ -1660,7 +1660,7 @@
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>223.8</v>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E28" s="2">
@@ -1702,7 +1702,7 @@
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>233.25</v>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E29" s="2">
@@ -1744,7 +1744,7 @@
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>242.7</v>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E30" s="2">
@@ -1786,7 +1786,7 @@
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>252.15</v>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E31" s="2">
@@ -1828,7 +1828,7 @@
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>261.60000000000002</v>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E32" s="2">
@@ -1870,7 +1870,7 @@
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>271.05</v>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E33" s="2">
@@ -1912,7 +1912,7 @@
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>280.5</v>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="5"/>
+        <f>A1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E34" s="2">
@@ -1954,7 +1954,7 @@
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>289.95</v>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>D34/2</f>
+        <f>(A1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E35" s="2">
@@ -1996,7 +1996,7 @@
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>269.7</v>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D13:D38" si="7">D35</f>
+        <f>(A1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E36" s="2">
@@ -2038,7 +2038,7 @@
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>279.42500000000001</v>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="7"/>
+        <f>(A1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E37" s="2">
@@ -2080,7 +2080,7 @@
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>289.14999999999998</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="7"/>
+        <f>(A1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E38" s="2">

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C53E42-FAC0-4F05-8142-1A84EFA36278}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE61DD-C872-4FC3-9A04-22A42323E708}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D35" sqref="D35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="2">
-        <f>A1*1.1</f>
+        <f>$A$1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E3" s="2">
@@ -669,11 +669,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E37" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E37" si="1">C4*D4</f>
         <v>76.45</v>
       </c>
       <c r="F4" s="3">
@@ -683,14 +683,14 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H37" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H37" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
@@ -700,22 +700,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A37" si="3">A4+1</f>
+        <f t="shared" ref="A5:A37" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C37" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C37" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.900000000000006</v>
       </c>
       <c r="F5" s="3">
@@ -725,18 +725,18 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ref="K5:K37" si="5">E5+J5</f>
+        <f t="shared" ref="K5:K37" si="6">E5+J5</f>
         <v>75.900000000000006</v>
       </c>
     </row>
@@ -749,15 +749,15 @@
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75.350000000000009</v>
       </c>
       <c r="F6" s="3">
@@ -767,39 +767,39 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75.350000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.800000000000011</v>
       </c>
       <c r="F7" s="3">
@@ -809,39 +809,39 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74.800000000000011</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74.25</v>
       </c>
       <c r="F8" s="3">
@@ -851,39 +851,39 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.7</v>
       </c>
       <c r="F9" s="3">
@@ -893,39 +893,39 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73.7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.150000000000006</v>
       </c>
       <c r="F10" s="3">
@@ -935,39 +935,39 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73.150000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.600000000000009</v>
       </c>
       <c r="F11" s="3">
@@ -977,39 +977,39 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72.050000000000011</v>
       </c>
       <c r="F12" s="3">
@@ -1019,7 +1019,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="2">
@@ -1036,22 +1036,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
       <c r="F13" s="3">
@@ -1061,39 +1061,39 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="2">
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.95</v>
       </c>
       <c r="F14" s="3">
@@ -1103,39 +1103,39 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100.95</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.400000000000006</v>
       </c>
       <c r="F15" s="3">
@@ -1145,39 +1145,39 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="2">
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.850000000000009</v>
       </c>
       <c r="F16" s="3">
@@ -1187,39 +1187,39 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="2">
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>119.85000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>69.300000000000011</v>
       </c>
       <c r="F17" s="3">
@@ -1229,39 +1229,39 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="2">
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>129.30000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68.75</v>
       </c>
       <c r="F18" s="3">
@@ -1271,39 +1271,39 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="2">
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>138.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68.2</v>
       </c>
       <c r="F19" s="3">
@@ -1313,24 +1313,24 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="2">
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>148.19999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1341,11 +1341,11 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.650000000000006</v>
       </c>
       <c r="F20" s="3">
@@ -1355,39 +1355,39 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="2">
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>157.65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67.100000000000009</v>
       </c>
       <c r="F21" s="3">
@@ -1397,39 +1397,39 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="2">
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>167.10000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66.550000000000011</v>
       </c>
       <c r="F22" s="3">
@@ -1439,35 +1439,35 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="2">
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>176.55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E23" s="2">
@@ -1481,39 +1481,39 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="2">
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.45</v>
       </c>
       <c r="F24" s="3">
@@ -1523,39 +1523,39 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="2">
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>195.45</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.900000000000006</v>
       </c>
       <c r="F25" s="3">
@@ -1565,39 +1565,39 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="2">
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>204.9</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.350000000000009</v>
       </c>
       <c r="F26" s="3">
@@ -1607,24 +1607,24 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="2">
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>214.35000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1635,11 +1635,11 @@
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.800000000000004</v>
       </c>
       <c r="F27" s="3">
@@ -1649,39 +1649,39 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="2">
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>223.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63.250000000000007</v>
       </c>
       <c r="F28" s="3">
@@ -1691,39 +1691,39 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="2">
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>233.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.7</v>
       </c>
       <c r="F29" s="3">
@@ -1733,39 +1733,39 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="2">
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>242.7</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62.150000000000006</v>
       </c>
       <c r="F30" s="3">
@@ -1775,39 +1775,39 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="2">
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>252.15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.600000000000009</v>
       </c>
       <c r="F31" s="3">
@@ -1817,39 +1817,39 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="2">
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>261.60000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61.050000000000004</v>
       </c>
       <c r="F32" s="3">
@@ -1859,39 +1859,39 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="2">
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>271.05</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.500000000000007</v>
       </c>
       <c r="F33" s="3">
@@ -1901,39 +1901,39 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="2">
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>280.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59.95</v>
       </c>
       <c r="F34" s="3">
@@ -1943,39 +1943,39 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="2">
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>289.95</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>(A1*1.1)/2</f>
+        <f>($A$1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.700000000000003</v>
       </c>
       <c r="F35" s="3">
@@ -1985,39 +1985,39 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="2">
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>269.7</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f>(A1*1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="7">($A$1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.425000000000001</v>
       </c>
       <c r="F36" s="3">
@@ -2027,39 +2027,39 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="2">
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>279.42500000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f>(A1*1.1)/2</f>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.150000000000002</v>
       </c>
       <c r="F37" s="3">
@@ -2069,18 +2069,18 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="2">
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>289.14999999999998</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f>(A1*1.1)/2</f>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E38" s="2">
@@ -2118,7 +2118,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="5">

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE61DD-C872-4FC3-9A04-22A42323E708}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83314B73-4BD4-4FB7-9516-50804FF9C02B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
@@ -174,10 +174,10 @@
     <t>Максимальная сумма к оплате, руб.</t>
   </si>
   <si>
-    <t>Общая сумма "Итого", руб.</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2142,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4">
         <f>SUM(K3:K38)</f>
@@ -2178,7 +2178,7 @@
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83314B73-4BD4-4FB7-9516-50804FF9C02B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B0B0E-6D17-42AB-BF3E-6072B21DC7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -213,22 +221,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,14 +557,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.75" style="1" bestFit="1" customWidth="1"/>
@@ -567,1649 +578,1590 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <f>$A$1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <f>C3*D3</f>
         <v>77</v>
       </c>
-      <c r="F3" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="4">
         <v>44805</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="3">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <f>E3+J3</f>
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E37" si="1">C4*D4</f>
         <v>76.45</v>
       </c>
-      <c r="F4" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="4">
         <v>44806</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <f t="shared" ref="H4:H37" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <f>E4+J4</f>
         <v>76.45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <f t="shared" ref="A5:A37" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:C37" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>75.900000000000006</v>
       </c>
-      <c r="F5" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="4">
         <v>44807</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="2">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <f t="shared" ref="K5:K37" si="6">E5+J5</f>
         <v>75.900000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>75.350000000000009</v>
       </c>
-      <c r="F6" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="4">
         <v>44808</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="2">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <f t="shared" si="6"/>
         <v>75.350000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>74.800000000000011</v>
       </c>
-      <c r="F7" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="4">
         <v>44809</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <f t="shared" si="6"/>
         <v>74.800000000000011</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>74.25</v>
       </c>
-      <c r="F8" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="4">
         <v>44810</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <f t="shared" si="6"/>
         <v>74.25</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>73.7</v>
       </c>
-      <c r="F9" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="4">
         <v>44811</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <f t="shared" si="6"/>
         <v>73.7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>73.150000000000006</v>
       </c>
-      <c r="F10" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="4">
         <v>44812</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="2">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <f t="shared" si="6"/>
         <v>73.150000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>72.600000000000009</v>
       </c>
-      <c r="F11" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="3">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="F11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <f t="shared" si="6"/>
         <v>72.600000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>72.050000000000011</v>
       </c>
-      <c r="F12" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="4">
         <v>44814</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="I12" s="3">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
         <f>I12*H12</f>
         <v>10</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <f>E12+J12</f>
         <v>82.050000000000011</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="F13" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="4">
         <v>44815</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="2">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="I13" s="3">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <f t="shared" si="6"/>
         <v>91.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>70.95</v>
       </c>
-      <c r="F14" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="4">
         <v>44816</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="2">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <f t="shared" si="6"/>
         <v>100.95</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="F15" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="4">
         <v>44817</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="2">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="I15" s="3">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <f t="shared" si="6"/>
         <v>110.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="F16" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="4">
         <v>44818</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="2">
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <f t="shared" si="6"/>
         <v>119.85000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
         <v>69.300000000000011</v>
       </c>
-      <c r="F17" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="4">
         <v>44819</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="2">
-        <v>10</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="3">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <f t="shared" si="6"/>
         <v>129.30000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
         <v>68.75</v>
       </c>
-      <c r="F18" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="4">
         <v>44820</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="2">
-        <v>10</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="I18" s="3">
+        <v>10</v>
+      </c>
+      <c r="J18" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <f t="shared" si="6"/>
         <v>138.75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
         <v>68.2</v>
       </c>
-      <c r="F19" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="4">
         <v>44821</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="2">
-        <v>10</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="I19" s="3">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="6">
         <f t="shared" si="6"/>
         <v>148.19999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <f>C19-0.5</f>
         <v>61.5</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
         <v>67.650000000000006</v>
       </c>
-      <c r="F20" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="4">
         <v>44822</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="2">
-        <v>10</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="I20" s="3">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="6">
         <f t="shared" si="6"/>
         <v>157.65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
         <v>67.100000000000009</v>
       </c>
-      <c r="F21" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="4">
         <v>44823</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="2">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="6">
         <f t="shared" si="6"/>
         <v>167.10000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E22" s="3">
         <f t="shared" si="1"/>
         <v>66.550000000000011</v>
       </c>
-      <c r="F22" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="4">
         <v>44824</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="2">
-        <v>10</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="I22" s="3">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="6">
         <f t="shared" si="6"/>
         <v>176.55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E23" s="3">
         <f>C23*D23</f>
         <v>66</v>
       </c>
-      <c r="F23" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="4">
         <v>44825</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="2">
-        <v>10</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="I23" s="3">
+        <v>10</v>
+      </c>
+      <c r="J23" s="3">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="6">
         <f t="shared" si="6"/>
         <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>65.45</v>
       </c>
-      <c r="F24" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="4">
         <v>44826</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="2">
-        <v>10</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="I24" s="3">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="6">
         <f t="shared" si="6"/>
         <v>195.45</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E25" s="3">
         <f t="shared" si="1"/>
         <v>64.900000000000006</v>
       </c>
-      <c r="F25" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="4">
         <v>44827</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="2">
-        <v>10</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="I25" s="3">
+        <v>10</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="6">
         <f t="shared" si="6"/>
         <v>204.9</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E26" s="3">
         <f t="shared" si="1"/>
         <v>64.350000000000009</v>
       </c>
-      <c r="F26" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="4">
         <v>44828</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="2">
-        <v>10</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="I26" s="3">
+        <v>10</v>
+      </c>
+      <c r="J26" s="3">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="6">
         <f t="shared" si="6"/>
         <v>214.35000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <f>C26-0.5</f>
         <v>58</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E27" s="3">
         <f t="shared" si="1"/>
         <v>63.800000000000004</v>
       </c>
-      <c r="F27" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="4">
         <v>44829</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="3">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="2">
-        <v>10</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="I27" s="3">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="6">
         <f t="shared" si="6"/>
         <v>223.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E28" s="3">
         <f t="shared" si="1"/>
         <v>63.250000000000007</v>
       </c>
-      <c r="F28" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="4">
         <v>44830</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="2">
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="3">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="6">
         <f t="shared" si="6"/>
         <v>233.25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E29" s="3">
         <f t="shared" si="1"/>
         <v>62.7</v>
       </c>
-      <c r="F29" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="4">
         <v>44831</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="3">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="2">
-        <v>10</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="6">
         <f t="shared" si="6"/>
         <v>242.7</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E30" s="3">
         <f t="shared" si="1"/>
         <v>62.150000000000006</v>
       </c>
-      <c r="F30" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="4">
         <v>44832</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="3">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="2">
-        <v>10</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="I30" s="3">
+        <v>10</v>
+      </c>
+      <c r="J30" s="3">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <f t="shared" si="6"/>
         <v>252.15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E31" s="3">
         <f t="shared" si="1"/>
         <v>61.600000000000009</v>
       </c>
-      <c r="F31" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="4">
         <v>44833</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="3">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="2">
-        <v>10</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="I31" s="3">
+        <v>10</v>
+      </c>
+      <c r="J31" s="3">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="6">
         <f t="shared" si="6"/>
         <v>261.60000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E32" s="3">
         <f t="shared" si="1"/>
         <v>61.050000000000004</v>
       </c>
-      <c r="F32" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="4">
         <v>44834</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="2">
-        <v>10</v>
-      </c>
-      <c r="J32" s="2">
+      <c r="I32" s="3">
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="6">
         <f t="shared" si="6"/>
         <v>271.05</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E33" s="3">
         <f t="shared" si="1"/>
         <v>60.500000000000007</v>
       </c>
-      <c r="F33" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="4">
         <v>44835</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="2">
-        <v>10</v>
-      </c>
-      <c r="J33" s="2">
+      <c r="I33" s="3">
+        <v>10</v>
+      </c>
+      <c r="J33" s="3">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="6">
         <f t="shared" si="6"/>
         <v>280.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E34" s="3">
         <f t="shared" si="1"/>
         <v>59.95</v>
       </c>
-      <c r="F34" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="4">
         <v>44836</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="3">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="2">
-        <v>10</v>
-      </c>
-      <c r="J34" s="2">
+      <c r="I34" s="3">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="6">
         <f t="shared" si="6"/>
         <v>289.95</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <f>($A$1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <f t="shared" si="1"/>
         <v>29.700000000000003</v>
       </c>
-      <c r="F35" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="4">
         <v>44837</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="3">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="2">
-        <v>10</v>
-      </c>
-      <c r="J35" s="2">
+      <c r="I35" s="3">
+        <v>10</v>
+      </c>
+      <c r="J35" s="3">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="6">
         <f t="shared" si="6"/>
         <v>269.7</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <f t="shared" ref="D36:D38" si="7">($A$1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <f t="shared" si="1"/>
         <v>29.425000000000001</v>
       </c>
-      <c r="F36" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="4">
         <v>44838</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="2">
-        <v>10</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+      <c r="J36" s="3">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="6">
         <f t="shared" si="6"/>
         <v>279.42500000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <f t="shared" si="1"/>
         <v>29.150000000000002</v>
       </c>
-      <c r="F37" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="4">
         <v>44839</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="3">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="2">
-        <v>10</v>
-      </c>
-      <c r="J37" s="2">
+      <c r="I37" s="3">
+        <v>10</v>
+      </c>
+      <c r="J37" s="3">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="6">
         <f t="shared" si="6"/>
         <v>289.14999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <f>C37-0.5</f>
         <v>52.5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <f>C38*D38</f>
         <v>28.875000000000004</v>
       </c>
-      <c r="F38" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="4">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="4">
         <v>44840</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="3">
         <f>IF(G38&lt;=F38,0,G38-F38)</f>
         <v>27</v>
       </c>
-      <c r="I38" s="2">
-        <v>10</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="I38" s="3">
+        <v>10</v>
+      </c>
+      <c r="J38" s="3">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="6">
         <f>E38+J38</f>
         <v>298.875</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <f>SUM(K3:K38)</f>
         <v>6088.35</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <f>MAX(E3:E38)</f>
         <v>77</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B0B0E-6D17-42AB-BF3E-6072B21DC7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83E70E-83FF-4D3E-81CA-C8635B673083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
@@ -179,13 +179,13 @@
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2">
         <f>SUM(K3:K38)</f>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(E3:E38)</f>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83E70E-83FF-4D3E-81CA-C8635B673083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CEA374-E0C9-4456-BDF4-D0C39B5A2EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
@@ -221,12 +221,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -236,9 +233,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -578,7 +572,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
     </row>
@@ -621,38 +615,38 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>70</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>$A$1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f>C3*D3</f>
         <v>77</v>
       </c>
-      <c r="F3" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="3">
         <v>44805</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="3">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3">
-        <f>I3*H3</f>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <f>E3+J3</f>
         <v>77</v>
       </c>
@@ -662,39 +656,41 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" ref="E4:E37" si="1">C4*D4</f>
         <v>76.45</v>
       </c>
-      <c r="F4" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
+        <f>$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="3">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H37" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="3">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="4">
         <f>E4+J4</f>
         <v>76.45</v>
       </c>
@@ -704,40 +700,42 @@
         <f t="shared" ref="A5:A37" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C37" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="1"/>
         <v>75.900000000000006</v>
       </c>
-      <c r="F5" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:F38" si="6">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I5" s="3">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5" s="6">
-        <f t="shared" ref="K5:K37" si="6">E5+J5</f>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:K37" si="8">E5+J5</f>
         <v>75.900000000000006</v>
       </c>
     </row>
@@ -746,40 +744,42 @@
         <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="1"/>
         <v>75.350000000000009</v>
       </c>
-      <c r="F6" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="3">
-        <v>10</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K6" s="6">
-        <f t="shared" si="6"/>
+      <c r="K6" s="4">
+        <f t="shared" si="8"/>
         <v>75.350000000000009</v>
       </c>
     </row>
@@ -788,40 +788,42 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>74.800000000000011</v>
       </c>
-      <c r="F7" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="3">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K7" s="6">
-        <f t="shared" si="6"/>
+      <c r="K7" s="4">
+        <f t="shared" si="8"/>
         <v>74.800000000000011</v>
       </c>
     </row>
@@ -830,40 +832,42 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>74.25</v>
       </c>
-      <c r="F8" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="3">
-        <v>10</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K8" s="6">
-        <f t="shared" si="6"/>
+      <c r="K8" s="4">
+        <f t="shared" si="8"/>
         <v>74.25</v>
       </c>
     </row>
@@ -872,40 +876,42 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="1"/>
         <v>73.7</v>
       </c>
-      <c r="F9" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="3">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K9" s="6">
-        <f t="shared" si="6"/>
+      <c r="K9" s="4">
+        <f t="shared" si="8"/>
         <v>73.7</v>
       </c>
     </row>
@@ -914,40 +920,42 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="1"/>
         <v>73.150000000000006</v>
       </c>
-      <c r="F10" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="3">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="6">
-        <f t="shared" si="6"/>
+      <c r="K10" s="4">
+        <f t="shared" si="8"/>
         <v>73.150000000000006</v>
       </c>
     </row>
@@ -956,40 +964,42 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>72.600000000000009</v>
       </c>
-      <c r="F11" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="4">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="3">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K11" s="6">
-        <f t="shared" si="6"/>
+      <c r="K11" s="4">
+        <f t="shared" si="8"/>
         <v>72.600000000000009</v>
       </c>
     </row>
@@ -998,39 +1008,41 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>72.050000000000011</v>
       </c>
-      <c r="F12" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="3">
-        <v>10</v>
-      </c>
-      <c r="J12" s="3">
-        <f>I12*H12</f>
-        <v>10</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="4">
         <f>E12+J12</f>
         <v>82.050000000000011</v>
       </c>
@@ -1040,40 +1052,42 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>71.5</v>
       </c>
-      <c r="F13" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="I13" s="3">
-        <v>10</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K13" s="6">
-        <f t="shared" si="6"/>
+      <c r="K13" s="4">
+        <f t="shared" si="8"/>
         <v>91.5</v>
       </c>
     </row>
@@ -1082,40 +1096,42 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>70.95</v>
       </c>
-      <c r="F14" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K14" s="6">
-        <f t="shared" si="6"/>
+      <c r="K14" s="4">
+        <f t="shared" si="8"/>
         <v>100.95</v>
       </c>
     </row>
@@ -1124,40 +1140,42 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>70.400000000000006</v>
       </c>
-      <c r="F15" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="K15" s="6">
-        <f t="shared" si="6"/>
+      <c r="K15" s="4">
+        <f t="shared" si="8"/>
         <v>110.4</v>
       </c>
     </row>
@@ -1166,40 +1184,42 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>69.850000000000009</v>
       </c>
-      <c r="F16" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="I16" s="3">
-        <v>10</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K16" s="6">
-        <f t="shared" si="6"/>
+      <c r="K16" s="4">
+        <f t="shared" si="8"/>
         <v>119.85000000000001</v>
       </c>
     </row>
@@ -1208,40 +1228,42 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>69.300000000000011</v>
       </c>
-      <c r="F17" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="I17" s="3">
-        <v>10</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K17" s="6">
-        <f t="shared" si="6"/>
+      <c r="K17" s="4">
+        <f t="shared" si="8"/>
         <v>129.30000000000001</v>
       </c>
     </row>
@@ -1250,40 +1272,42 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
         <v>68.75</v>
       </c>
-      <c r="F18" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="I18" s="3">
-        <v>10</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="K18" s="6">
-        <f t="shared" si="6"/>
+      <c r="K18" s="4">
+        <f t="shared" si="8"/>
         <v>138.75</v>
       </c>
     </row>
@@ -1292,40 +1316,42 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="1"/>
         <v>68.2</v>
       </c>
-      <c r="F19" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I19" s="3">
-        <v>10</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K19" s="6">
-        <f t="shared" si="6"/>
+      <c r="K19" s="4">
+        <f t="shared" si="8"/>
         <v>148.19999999999999</v>
       </c>
     </row>
@@ -1334,40 +1360,42 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f>C19-0.5</f>
         <v>61.5</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>67.650000000000006</v>
       </c>
-      <c r="F20" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F20" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I20" s="3">
-        <v>10</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="2">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="K20" s="6">
-        <f t="shared" si="6"/>
+      <c r="K20" s="4">
+        <f t="shared" si="8"/>
         <v>157.65</v>
       </c>
     </row>
@@ -1376,40 +1404,42 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>67.100000000000009</v>
       </c>
-      <c r="F21" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F21" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="3">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="3">
-        <v>10</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="2">
+        <v>10</v>
+      </c>
+      <c r="J21" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K21" s="6">
-        <f t="shared" si="6"/>
+      <c r="K21" s="4">
+        <f t="shared" si="8"/>
         <v>167.10000000000002</v>
       </c>
     </row>
@@ -1418,40 +1448,42 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>66.550000000000011</v>
       </c>
-      <c r="F22" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F22" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="I22" s="3">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="2">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="K22" s="6">
-        <f t="shared" si="6"/>
+      <c r="K22" s="4">
+        <f t="shared" si="8"/>
         <v>176.55</v>
       </c>
     </row>
@@ -1460,40 +1492,42 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E23" s="2">
         <f>C23*D23</f>
         <v>66</v>
       </c>
-      <c r="F23" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="I23" s="3">
-        <v>10</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="I23" s="2">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="K23" s="6">
-        <f t="shared" si="6"/>
+      <c r="K23" s="4">
+        <f t="shared" si="8"/>
         <v>186</v>
       </c>
     </row>
@@ -1502,40 +1536,42 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
         <v>65.45</v>
       </c>
-      <c r="F24" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="I24" s="3">
-        <v>10</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="I24" s="2">
+        <v>10</v>
+      </c>
+      <c r="J24" s="2">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="K24" s="6">
-        <f t="shared" si="6"/>
+      <c r="K24" s="4">
+        <f t="shared" si="8"/>
         <v>195.45</v>
       </c>
     </row>
@@ -1544,40 +1580,42 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E25" s="2">
         <f t="shared" si="1"/>
         <v>64.900000000000006</v>
       </c>
-      <c r="F25" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="I25" s="3">
-        <v>10</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="I25" s="2">
+        <v>10</v>
+      </c>
+      <c r="J25" s="2">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="K25" s="6">
-        <f t="shared" si="6"/>
+      <c r="K25" s="4">
+        <f t="shared" si="8"/>
         <v>204.9</v>
       </c>
     </row>
@@ -1586,40 +1624,42 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>64.350000000000009</v>
       </c>
-      <c r="F26" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="F26" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="I26" s="3">
-        <v>10</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="I26" s="2">
+        <v>10</v>
+      </c>
+      <c r="J26" s="2">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="K26" s="6">
-        <f t="shared" si="6"/>
+      <c r="K26" s="4">
+        <f t="shared" si="8"/>
         <v>214.35000000000002</v>
       </c>
     </row>
@@ -1628,40 +1668,42 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f>C26-0.5</f>
         <v>58</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>63.800000000000004</v>
       </c>
-      <c r="F27" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="I27" s="3">
-        <v>10</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+      <c r="J27" s="2">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="K27" s="6">
-        <f t="shared" si="6"/>
+      <c r="K27" s="4">
+        <f t="shared" si="8"/>
         <v>223.8</v>
       </c>
     </row>
@@ -1670,40 +1712,42 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>63.250000000000007</v>
       </c>
-      <c r="F28" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="F28" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="I28" s="3">
-        <v>10</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="I28" s="2">
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="K28" s="6">
-        <f t="shared" si="6"/>
+      <c r="K28" s="4">
+        <f t="shared" si="8"/>
         <v>233.25</v>
       </c>
     </row>
@@ -1712,40 +1756,42 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>62.7</v>
       </c>
-      <c r="F29" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="F29" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I29" s="3">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="2">
+        <v>10</v>
+      </c>
+      <c r="J29" s="2">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="K29" s="6">
-        <f t="shared" si="6"/>
+      <c r="K29" s="4">
+        <f t="shared" si="8"/>
         <v>242.7</v>
       </c>
     </row>
@@ -1754,40 +1800,42 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>62.150000000000006</v>
       </c>
-      <c r="F30" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="F30" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="I30" s="3">
-        <v>10</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+      <c r="J30" s="2">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="K30" s="6">
-        <f t="shared" si="6"/>
+      <c r="K30" s="4">
+        <f t="shared" si="8"/>
         <v>252.15</v>
       </c>
     </row>
@@ -1796,40 +1844,42 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>61.600000000000009</v>
       </c>
-      <c r="F31" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I31" s="3">
-        <v>10</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="K31" s="6">
-        <f t="shared" si="6"/>
+      <c r="K31" s="4">
+        <f t="shared" si="8"/>
         <v>261.60000000000002</v>
       </c>
     </row>
@@ -1838,40 +1888,42 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>61.050000000000004</v>
       </c>
-      <c r="F32" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="I32" s="3">
-        <v>10</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="2">
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K32" s="6">
-        <f t="shared" si="6"/>
+      <c r="K32" s="4">
+        <f t="shared" si="8"/>
         <v>271.05</v>
       </c>
     </row>
@@ -1880,40 +1932,42 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>60.500000000000007</v>
       </c>
-      <c r="F33" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F33" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="I33" s="3">
-        <v>10</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="K33" s="6">
-        <f t="shared" si="6"/>
+      <c r="K33" s="4">
+        <f t="shared" si="8"/>
         <v>280.5</v>
       </c>
     </row>
@@ -1922,40 +1976,42 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>59.95</v>
       </c>
-      <c r="F34" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="I34" s="3">
-        <v>10</v>
-      </c>
-      <c r="J34" s="3">
+      <c r="I34" s="2">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="K34" s="6">
-        <f t="shared" si="6"/>
+      <c r="K34" s="4">
+        <f t="shared" si="8"/>
         <v>289.95</v>
       </c>
     </row>
@@ -1964,40 +2020,42 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <f>($A$1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f t="shared" si="1"/>
         <v>29.700000000000003</v>
       </c>
-      <c r="F35" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="F35" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I35" s="3">
-        <v>10</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="I35" s="2">
+        <v>10</v>
+      </c>
+      <c r="J35" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K35" s="6">
-        <f t="shared" si="6"/>
+      <c r="K35" s="4">
+        <f t="shared" si="8"/>
         <v>269.7</v>
       </c>
     </row>
@@ -2006,40 +2064,42 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="3">
-        <f t="shared" ref="D36:D38" si="7">($A$1*1.1)/2</f>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36:D38" si="9">($A$1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>29.425000000000001</v>
       </c>
-      <c r="F36" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="4">
+      <c r="F36" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="I36" s="3">
-        <v>10</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="I36" s="2">
+        <v>10</v>
+      </c>
+      <c r="J36" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="K36" s="6">
-        <f t="shared" si="6"/>
+      <c r="K36" s="4">
+        <f t="shared" si="8"/>
         <v>279.42500000000001</v>
       </c>
     </row>
@@ -2048,40 +2108,42 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="3">
-        <f t="shared" si="7"/>
+      <c r="D37" s="2">
+        <f t="shared" si="9"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>29.150000000000002</v>
       </c>
-      <c r="F37" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="F37" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="I37" s="3">
-        <v>10</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="I37" s="2">
+        <v>10</v>
+      </c>
+      <c r="J37" s="2">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="K37" s="6">
-        <f t="shared" si="6"/>
+      <c r="K37" s="4">
+        <f t="shared" si="8"/>
         <v>289.14999999999998</v>
       </c>
     </row>
@@ -2090,75 +2152,77 @@
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <f>C37-0.5</f>
         <v>52.5</v>
       </c>
-      <c r="D38" s="3">
-        <f t="shared" si="7"/>
+      <c r="D38" s="2">
+        <f t="shared" si="9"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <f>C38*D38</f>
         <v>28.875000000000004</v>
       </c>
-      <c r="F38" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="4">
+      <c r="F38" s="3">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="3">
+        <f>G37+1</f>
         <v>44840</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <f>IF(G38&lt;=F38,0,G38-F38)</f>
         <v>27</v>
       </c>
-      <c r="I38" s="3">
-        <v>10</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="I38" s="2">
+        <v>10</v>
+      </c>
+      <c r="J38" s="2">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="4">
         <f>E38+J38</f>
         <v>298.875</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <f>SUM(K3:K38)</f>
         <v>6088.35</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <f>MAX(E3:E38)</f>
         <v>77</v>
       </c>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -1,32 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CEA374-E0C9-4456-BDF4-D0C39B5A2EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52B6386-C47B-4001-8E0E-833919CB8391}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -552,7 +544,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,6 +676,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -720,7 +713,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G37" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -728,6 +721,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -735,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" ref="K5:K37" si="8">E5+J5</f>
+        <f t="shared" ref="K5:K37" si="9">E5+J5</f>
         <v>75.900000000000006</v>
       </c>
     </row>
@@ -772,6 +766,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -779,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75.350000000000009</v>
       </c>
     </row>
@@ -816,6 +811,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -823,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74.800000000000011</v>
       </c>
     </row>
@@ -860,6 +856,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -867,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74.25</v>
       </c>
     </row>
@@ -904,6 +901,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -911,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73.7</v>
       </c>
     </row>
@@ -948,6 +946,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -955,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73.150000000000006</v>
       </c>
     </row>
@@ -992,6 +991,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>72.600000000000009</v>
       </c>
     </row>
@@ -1036,6 +1036,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1080,6 +1081,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1087,7 +1089,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>91.5</v>
       </c>
     </row>
@@ -1124,6 +1126,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1131,7 +1134,7 @@
         <v>30</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100.95</v>
       </c>
     </row>
@@ -1168,6 +1171,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1175,7 +1179,7 @@
         <v>40</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>110.4</v>
       </c>
     </row>
@@ -1212,6 +1216,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1219,7 +1224,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>119.85000000000001</v>
       </c>
     </row>
@@ -1256,6 +1261,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1263,7 +1269,7 @@
         <v>60</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>129.30000000000001</v>
       </c>
     </row>
@@ -1300,6 +1306,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1307,7 +1314,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>138.75</v>
       </c>
     </row>
@@ -1344,6 +1351,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1351,7 +1359,7 @@
         <v>80</v>
       </c>
       <c r="K19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>148.19999999999999</v>
       </c>
     </row>
@@ -1388,6 +1396,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1395,7 +1404,7 @@
         <v>90</v>
       </c>
       <c r="K20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>157.65</v>
       </c>
     </row>
@@ -1432,6 +1441,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1439,7 +1449,7 @@
         <v>100</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>167.10000000000002</v>
       </c>
     </row>
@@ -1476,6 +1486,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1483,7 +1494,7 @@
         <v>110</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>176.55</v>
       </c>
     </row>
@@ -1520,6 +1531,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1527,7 +1539,7 @@
         <v>120</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>186</v>
       </c>
     </row>
@@ -1564,6 +1576,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1571,7 +1584,7 @@
         <v>130</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>195.45</v>
       </c>
     </row>
@@ -1608,6 +1621,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1615,7 +1629,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>204.9</v>
       </c>
     </row>
@@ -1652,6 +1666,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1659,7 +1674,7 @@
         <v>150</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>214.35000000000002</v>
       </c>
     </row>
@@ -1696,6 +1711,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1703,7 +1719,7 @@
         <v>160</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>223.8</v>
       </c>
     </row>
@@ -1740,6 +1756,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1747,7 +1764,7 @@
         <v>170</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>233.25</v>
       </c>
     </row>
@@ -1784,6 +1801,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1791,7 +1809,7 @@
         <v>180</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>242.7</v>
       </c>
     </row>
@@ -1828,6 +1846,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1835,7 +1854,7 @@
         <v>190</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>252.15</v>
       </c>
     </row>
@@ -1872,6 +1891,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1879,7 +1899,7 @@
         <v>200</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>261.60000000000002</v>
       </c>
     </row>
@@ -1916,6 +1936,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -1923,7 +1944,7 @@
         <v>210</v>
       </c>
       <c r="K32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>271.05</v>
       </c>
     </row>
@@ -1960,6 +1981,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -1967,7 +1989,7 @@
         <v>220</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>280.5</v>
       </c>
     </row>
@@ -2004,6 +2026,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2011,7 +2034,7 @@
         <v>230</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>289.95</v>
       </c>
     </row>
@@ -2048,6 +2071,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2055,7 +2079,7 @@
         <v>240</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>269.7</v>
       </c>
     </row>
@@ -2072,7 +2096,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="9">($A$1*1.1)/2</f>
+        <f t="shared" ref="D36:D38" si="10">($A$1*1.1)/2</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="E36" s="2">
@@ -2092,6 +2116,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2099,7 +2124,7 @@
         <v>250</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>279.42500000000001</v>
       </c>
     </row>
@@ -2116,7 +2141,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E37" s="2">
@@ -2136,6 +2161,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2143,7 +2169,7 @@
         <v>260</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>289.14999999999998</v>
       </c>
     </row>
@@ -2160,7 +2186,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="E38" s="2">
@@ -2180,6 +2206,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2222,9 +2249,9 @@
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="2">
-        <f>MAX(E3:E38)</f>
-        <v>77</v>
+      <c r="C43" s="4">
+        <f>MAX(K3:K38)</f>
+        <v>298.875</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_1.xlsx
+++ b/LR3/table_1_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52B6386-C47B-4001-8E0E-833919CB8391}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C649894-549E-4814-A71A-1253F07F8EF5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2223,8 +2223,8 @@
         <v>49</v>
       </c>
       <c r="C40" s="4">
-        <f>SUM(K3:K38)</f>
-        <v>6088.35</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>6088</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
